--- a/Code/Results/Cases/Case_3_54/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_54/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.47284733796189</v>
+        <v>15.4728473379619</v>
       </c>
       <c r="C2">
-        <v>13.98083662326641</v>
+        <v>13.9808366232663</v>
       </c>
       <c r="D2">
-        <v>4.520829870576813</v>
+        <v>4.520829870576837</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>38.99587648195509</v>
+        <v>38.99587648195507</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,13 +436,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>14.95794883877581</v>
+        <v>14.95794883877579</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>29.9484623817626</v>
+        <v>29.94846238176263</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.42435660991524</v>
+        <v>14.42435660991529</v>
       </c>
       <c r="C3">
-        <v>12.99415627051666</v>
+        <v>12.99415627051684</v>
       </c>
       <c r="D3">
-        <v>4.513284002024416</v>
+        <v>4.513284002024248</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>36.87260732826728</v>
+        <v>36.87260732826722</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>25.14603639955504</v>
+        <v>25.14603639955495</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>13.9788644429797</v>
+        <v>13.97886444297983</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>27.60300611647696</v>
+        <v>27.60300611647703</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.74696488030552</v>
+        <v>13.74696488030556</v>
       </c>
       <c r="C4">
-        <v>12.35850570600964</v>
+        <v>12.35850570600948</v>
       </c>
       <c r="D4">
-        <v>4.510137345423872</v>
+        <v>4.510137345423915</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>35.54726628456007</v>
+        <v>35.54726628456012</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -512,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>13.34782250050672</v>
+        <v>13.34782250050669</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.46236573918766</v>
+        <v>13.46236573918764</v>
       </c>
       <c r="C5">
         <v>12.0918298767872</v>
       </c>
       <c r="D5">
-        <v>4.509189753263087</v>
+        <v>4.509189753263365</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>35.00201228339437</v>
+        <v>35.00201228339427</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>24.19542220370143</v>
+        <v>24.1954222037014</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>13.08307083601841</v>
+        <v>13.08307083601839</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>25.50058840552311</v>
+        <v>25.50058840552313</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.41458859731965</v>
+        <v>13.4145885973197</v>
       </c>
       <c r="C6">
-        <v>12.04708295054523</v>
+        <v>12.04708295054512</v>
       </c>
       <c r="D6">
-        <v>4.509051557654454</v>
+        <v>4.509051557654343</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>34.91117207569727</v>
+        <v>34.91117207569737</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>24.14976381677655</v>
+        <v>24.1497638167766</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>25.39728291258185</v>
+        <v>25.39728291258188</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.74316145341173</v>
+        <v>13.74316145341181</v>
       </c>
       <c r="C7">
-        <v>12.35494035087153</v>
+        <v>12.35494035087171</v>
       </c>
       <c r="D7">
-        <v>4.510123259292384</v>
+        <v>4.510123259292428</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>35.53993324802154</v>
+        <v>35.53993324802141</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>24.46678300435022</v>
+        <v>24.46678300435012</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>13.34428282647947</v>
+        <v>13.34428282647957</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>26.10978682182941</v>
+        <v>26.10978682182943</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.11823913450221</v>
+        <v>15.11823913450216</v>
       </c>
       <c r="C8">
         <v>13.6467294678172</v>
       </c>
       <c r="D8">
-        <v>4.517894579727756</v>
+        <v>4.517894579727963</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>38.26838531025238</v>
+        <v>38.26838531025236</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>25.86735504114494</v>
+        <v>25.86735504114495</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>14.62650741633982</v>
+        <v>14.62650741633977</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>29.14834960316703</v>
+        <v>29.14834960316704</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.55317578761105</v>
+        <v>17.55317578761106</v>
       </c>
       <c r="C9">
-        <v>15.95040435409528</v>
+        <v>15.9504043540952</v>
       </c>
       <c r="D9">
-        <v>4.546960756466071</v>
+        <v>4.546960756465966</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>43.44323484671818</v>
+        <v>43.44323484671813</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>28.61706337153628</v>
+        <v>28.61706337153625</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>16.90839214632805</v>
+        <v>16.908392146328</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>34.81091631726541</v>
+        <v>34.81091631726543</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.19037653107225</v>
+        <v>19.19037653107229</v>
       </c>
       <c r="C10">
-        <v>17.51411375026071</v>
+        <v>17.51411375026064</v>
       </c>
       <c r="D10">
-        <v>4.580113732348179</v>
+        <v>4.580113732348231</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>47.14626349205209</v>
+        <v>47.14626349205211</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>30.64530142959234</v>
+        <v>30.64530142959237</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>38.8986332755843</v>
+        <v>38.89863327558427</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.90406927406218</v>
+        <v>19.90406927406223</v>
       </c>
       <c r="C11">
-        <v>18.20040233630999</v>
+        <v>18.20040233631007</v>
       </c>
       <c r="D11">
-        <v>4.598720024007588</v>
+        <v>4.598720024007501</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>48.81552237392857</v>
+        <v>48.81552237392872</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>31.57354851419598</v>
+        <v>31.57354851419607</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>19.12477264818946</v>
+        <v>19.12477264818947</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>40.7774436967958</v>
+        <v>40.77744369679577</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.17001543636874</v>
+        <v>20.17001543636862</v>
       </c>
       <c r="C12">
-        <v>18.45696145823225</v>
+        <v>18.45696145823209</v>
       </c>
       <c r="D12">
-        <v>4.606376407710414</v>
+        <v>4.606376407710514</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>49.44631153554126</v>
+        <v>49.44631153554123</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -816,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>19.37636417704967</v>
+        <v>19.37636417704958</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>41.49590545839006</v>
+        <v>41.49590545839013</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.11292854181523</v>
+        <v>20.11292854181526</v>
       </c>
       <c r="C13">
         <v>18.40184975825893</v>
       </c>
       <c r="D13">
-        <v>4.604698382138601</v>
+        <v>4.604698382138531</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>49.31050072108212</v>
+        <v>49.31050072108214</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>31.85033703512268</v>
+        <v>31.8503370351227</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>19.32234290096179</v>
+        <v>19.32234290096178</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>41.34077659172103</v>
+        <v>41.34077659172108</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.92603438417664</v>
+        <v>19.9260343841768</v>
       </c>
       <c r="C14">
-        <v>18.22157446316873</v>
+        <v>18.22157446316884</v>
       </c>
       <c r="D14">
-        <v>4.599336996594726</v>
+        <v>4.599336996594719</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>48.86743796895673</v>
+        <v>48.86743796895714</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>31.60254699486216</v>
+        <v>31.60254699486241</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>19.14554516584451</v>
+        <v>19.1455451658447</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>40.83638205512565</v>
+        <v>40.83638205512582</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.81099917703609</v>
+        <v>19.81099917703598</v>
       </c>
       <c r="C15">
-        <v>18.11072684381504</v>
+        <v>18.11072684381512</v>
       </c>
       <c r="D15">
-        <v>4.59613601958652</v>
+        <v>4.596136019586549</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>48.59590911215279</v>
+        <v>48.59590911215256</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>31.45096380430448</v>
+        <v>31.45096380430435</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>19.03676963220948</v>
+        <v>19.03676963220941</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>40.52848823404354</v>
+        <v>40.52848823404352</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.14312285647895</v>
+        <v>19.14312285647879</v>
       </c>
       <c r="C16">
         <v>17.46878196542295</v>
       </c>
       <c r="D16">
-        <v>4.57897701315497</v>
+        <v>4.578977013155139</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>47.03693284583851</v>
+        <v>47.03693284583829</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>30.58479197630394</v>
+        <v>30.58479197630386</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>18.40589900391126</v>
+        <v>18.40589900391107</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>38.77656534261798</v>
+        <v>38.77656534261786</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.72555173197476</v>
+        <v>18.72555173197483</v>
       </c>
       <c r="C17">
-        <v>17.06873892495176</v>
+        <v>17.06873892495184</v>
       </c>
       <c r="D17">
-        <v>4.569419793841717</v>
+        <v>4.569419793841694</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>46.07715435974018</v>
+        <v>46.07715435974033</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>30.05517242412165</v>
+        <v>30.05517242412174</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>18.0120236592754</v>
+        <v>18.01202365927555</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>37.70933519806304</v>
+        <v>37.70933519806313</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.48244095334798</v>
+        <v>18.48244095334789</v>
       </c>
       <c r="C18">
-        <v>16.83626794620021</v>
+        <v>16.83626794620027</v>
       </c>
       <c r="D18">
-        <v>4.564247104532109</v>
+        <v>4.564247104532057</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>45.52360767173019</v>
+        <v>45.52360767173014</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>29.75103169668008</v>
+        <v>29.75103169668007</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>17.78290179427508</v>
+        <v>17.78290179427505</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>37.09698898977705</v>
+        <v>37.096988989777</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.39961907995958</v>
+        <v>18.3996190799596</v>
       </c>
       <c r="C19">
-        <v>16.75714122809513</v>
+        <v>16.75714122809511</v>
       </c>
       <c r="D19">
-        <v>4.562548652916627</v>
+        <v>4.562548652916621</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>45.33590636656641</v>
+        <v>45.33590636656631</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>29.6481248026938</v>
+        <v>29.64812480269372</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>17.70487771033257</v>
+        <v>17.70487771033261</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>36.88980969495304</v>
+        <v>36.88980969495305</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.7703055291945</v>
+        <v>18.77030552919447</v>
       </c>
       <c r="C20">
-        <v>17.11156829436006</v>
+        <v>17.11156829436019</v>
       </c>
       <c r="D20">
-        <v>4.570402930517222</v>
+        <v>4.570402930517316</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>46.17947523561997</v>
+        <v>46.17947523562015</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>30.11149819408462</v>
+        <v>30.11149819408476</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>18.05421766737771</v>
+        <v>18.05421766737776</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>37.82276273508904</v>
+        <v>37.82276273508913</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.98104555763745</v>
+        <v>19.98104555763766</v>
       </c>
       <c r="C21">
-        <v>18.27461344460601</v>
+        <v>18.27461344460608</v>
       </c>
       <c r="D21">
-        <v>4.600894240097411</v>
+        <v>4.60089424009745</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>48.99760334237575</v>
+        <v>48.99760334237598</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>31.67528690517155</v>
+        <v>31.67528690517165</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>19.19757502256828</v>
+        <v>19.19757502256848</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>40.98430373107072</v>
+        <v>40.98430373107082</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.74726139719392</v>
+        <v>20.74726139719395</v>
       </c>
       <c r="C22">
-        <v>19.01552237302252</v>
+        <v>19.01552237302247</v>
       </c>
       <c r="D22">
-        <v>4.624449745636284</v>
+        <v>4.624449745636324</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>50.83240074426551</v>
+        <v>50.83240074426548</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>32.7055996006338</v>
+        <v>32.70559960063375</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>19.92310737615708</v>
+        <v>19.92310737615714</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>43.09457242024344</v>
+        <v>43.09457242024347</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.34056048624763</v>
+        <v>20.34056048624759</v>
       </c>
       <c r="C23">
-        <v>18.62173870457045</v>
+        <v>18.62173870457062</v>
       </c>
       <c r="D23">
-        <v>4.611504302616167</v>
+        <v>4.611504302616181</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>49.85338447900333</v>
+        <v>49.85338447900337</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>32.1546979409855</v>
+        <v>32.15469794098553</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>19.53780261171785</v>
+        <v>19.5378026117179</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>41.96241558669762</v>
+        <v>41.9624155866977</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.75008182930463</v>
+        <v>18.75008182930467</v>
       </c>
       <c r="C24">
-        <v>17.09221288439771</v>
+        <v>17.09221288439775</v>
       </c>
       <c r="D24">
-        <v>4.569957459301987</v>
+        <v>4.569957459301998</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>46.13322150174264</v>
+        <v>46.13322150174255</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>30.08603227758668</v>
+        <v>30.08603227758663</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>18.03515010976172</v>
+        <v>18.03515010976178</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>37.77147864589728</v>
+        <v>37.77147864589727</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.92170249319966</v>
+        <v>16.92170249319961</v>
       </c>
       <c r="C25">
-        <v>15.3506992555558</v>
+        <v>15.35069925555579</v>
       </c>
       <c r="D25">
-        <v>4.537304398347333</v>
+        <v>4.537304398347322</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>42.06196689334205</v>
+        <v>42.06196689334198</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>27.87260310767856</v>
+        <v>27.87260310767855</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>16.31527519691443</v>
+        <v>16.31527519691437</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>33.30120174734719</v>
+        <v>33.30120174734718</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_54/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_54/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.4728473379619</v>
+        <v>15.47284733796189</v>
       </c>
       <c r="C2">
-        <v>13.9808366232663</v>
+        <v>13.98083662326641</v>
       </c>
       <c r="D2">
-        <v>4.520829870576837</v>
+        <v>4.520829870576813</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>38.99587648195507</v>
+        <v>38.99587648195509</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,13 +436,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>14.95794883877579</v>
+        <v>14.95794883877581</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>29.94846238176263</v>
+        <v>29.9484623817626</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.42435660991529</v>
+        <v>14.42435660991524</v>
       </c>
       <c r="C3">
-        <v>12.99415627051684</v>
+        <v>12.99415627051666</v>
       </c>
       <c r="D3">
-        <v>4.513284002024248</v>
+        <v>4.513284002024416</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>36.87260732826722</v>
+        <v>36.87260732826728</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>25.14603639955495</v>
+        <v>25.14603639955504</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>13.97886444297983</v>
+        <v>13.9788644429797</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>27.60300611647703</v>
+        <v>27.60300611647696</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.74696488030556</v>
+        <v>13.74696488030552</v>
       </c>
       <c r="C4">
-        <v>12.35850570600948</v>
+        <v>12.35850570600964</v>
       </c>
       <c r="D4">
-        <v>4.510137345423915</v>
+        <v>4.510137345423872</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>35.54726628456012</v>
+        <v>35.54726628456007</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -512,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>13.34782250050669</v>
+        <v>13.34782250050672</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.46236573918764</v>
+        <v>13.46236573918766</v>
       </c>
       <c r="C5">
         <v>12.0918298767872</v>
       </c>
       <c r="D5">
-        <v>4.509189753263365</v>
+        <v>4.509189753263087</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>35.00201228339427</v>
+        <v>35.00201228339437</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>24.1954222037014</v>
+        <v>24.19542220370143</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>13.08307083601839</v>
+        <v>13.08307083601841</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>25.50058840552313</v>
+        <v>25.50058840552311</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.4145885973197</v>
+        <v>13.41458859731965</v>
       </c>
       <c r="C6">
-        <v>12.04708295054512</v>
+        <v>12.04708295054523</v>
       </c>
       <c r="D6">
-        <v>4.509051557654343</v>
+        <v>4.509051557654454</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>34.91117207569737</v>
+        <v>34.91117207569727</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>24.1497638167766</v>
+        <v>24.14976381677655</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>25.39728291258188</v>
+        <v>25.39728291258185</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.74316145341181</v>
+        <v>13.74316145341173</v>
       </c>
       <c r="C7">
-        <v>12.35494035087171</v>
+        <v>12.35494035087153</v>
       </c>
       <c r="D7">
-        <v>4.510123259292428</v>
+        <v>4.510123259292384</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>35.53993324802141</v>
+        <v>35.53993324802154</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>24.46678300435012</v>
+        <v>24.46678300435022</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>13.34428282647957</v>
+        <v>13.34428282647947</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>26.10978682182943</v>
+        <v>26.10978682182941</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.11823913450216</v>
+        <v>15.11823913450221</v>
       </c>
       <c r="C8">
         <v>13.6467294678172</v>
       </c>
       <c r="D8">
-        <v>4.517894579727963</v>
+        <v>4.517894579727756</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>38.26838531025236</v>
+        <v>38.26838531025238</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>25.86735504114495</v>
+        <v>25.86735504114494</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>14.62650741633977</v>
+        <v>14.62650741633982</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>29.14834960316704</v>
+        <v>29.14834960316703</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.55317578761106</v>
+        <v>17.55317578761105</v>
       </c>
       <c r="C9">
-        <v>15.9504043540952</v>
+        <v>15.95040435409528</v>
       </c>
       <c r="D9">
-        <v>4.546960756465966</v>
+        <v>4.546960756466071</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>43.44323484671813</v>
+        <v>43.44323484671818</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>28.61706337153625</v>
+        <v>28.61706337153628</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>16.908392146328</v>
+        <v>16.90839214632805</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>34.81091631726543</v>
+        <v>34.81091631726541</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.19037653107229</v>
+        <v>19.19037653107225</v>
       </c>
       <c r="C10">
-        <v>17.51411375026064</v>
+        <v>17.51411375026071</v>
       </c>
       <c r="D10">
-        <v>4.580113732348231</v>
+        <v>4.580113732348179</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>47.14626349205211</v>
+        <v>47.14626349205209</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>30.64530142959237</v>
+        <v>30.64530142959234</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>38.89863327558427</v>
+        <v>38.8986332755843</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.90406927406223</v>
+        <v>19.90406927406218</v>
       </c>
       <c r="C11">
-        <v>18.20040233631007</v>
+        <v>18.20040233630999</v>
       </c>
       <c r="D11">
-        <v>4.598720024007501</v>
+        <v>4.598720024007588</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>48.81552237392872</v>
+        <v>48.81552237392857</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>31.57354851419607</v>
+        <v>31.57354851419598</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>19.12477264818947</v>
+        <v>19.12477264818946</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>40.77744369679577</v>
+        <v>40.7774436967958</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.17001543636862</v>
+        <v>20.17001543636874</v>
       </c>
       <c r="C12">
-        <v>18.45696145823209</v>
+        <v>18.45696145823225</v>
       </c>
       <c r="D12">
-        <v>4.606376407710514</v>
+        <v>4.606376407710414</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>49.44631153554123</v>
+        <v>49.44631153554126</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -816,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>19.37636417704958</v>
+        <v>19.37636417704967</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>41.49590545839013</v>
+        <v>41.49590545839006</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.11292854181526</v>
+        <v>20.11292854181523</v>
       </c>
       <c r="C13">
         <v>18.40184975825893</v>
       </c>
       <c r="D13">
-        <v>4.604698382138531</v>
+        <v>4.604698382138601</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>49.31050072108214</v>
+        <v>49.31050072108212</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>31.8503370351227</v>
+        <v>31.85033703512268</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>19.32234290096178</v>
+        <v>19.32234290096179</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>41.34077659172108</v>
+        <v>41.34077659172103</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.9260343841768</v>
+        <v>19.92603438417664</v>
       </c>
       <c r="C14">
-        <v>18.22157446316884</v>
+        <v>18.22157446316873</v>
       </c>
       <c r="D14">
-        <v>4.599336996594719</v>
+        <v>4.599336996594726</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>48.86743796895714</v>
+        <v>48.86743796895673</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>31.60254699486241</v>
+        <v>31.60254699486216</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>19.1455451658447</v>
+        <v>19.14554516584451</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>40.83638205512582</v>
+        <v>40.83638205512565</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.81099917703598</v>
+        <v>19.81099917703609</v>
       </c>
       <c r="C15">
-        <v>18.11072684381512</v>
+        <v>18.11072684381504</v>
       </c>
       <c r="D15">
-        <v>4.596136019586549</v>
+        <v>4.59613601958652</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>48.59590911215256</v>
+        <v>48.59590911215279</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>31.45096380430435</v>
+        <v>31.45096380430448</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>19.03676963220941</v>
+        <v>19.03676963220948</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>40.52848823404352</v>
+        <v>40.52848823404354</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.14312285647879</v>
+        <v>19.14312285647895</v>
       </c>
       <c r="C16">
         <v>17.46878196542295</v>
       </c>
       <c r="D16">
-        <v>4.578977013155139</v>
+        <v>4.57897701315497</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>47.03693284583829</v>
+        <v>47.03693284583851</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>30.58479197630386</v>
+        <v>30.58479197630394</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>18.40589900391107</v>
+        <v>18.40589900391126</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>38.77656534261786</v>
+        <v>38.77656534261798</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.72555173197483</v>
+        <v>18.72555173197476</v>
       </c>
       <c r="C17">
-        <v>17.06873892495184</v>
+        <v>17.06873892495176</v>
       </c>
       <c r="D17">
-        <v>4.569419793841694</v>
+        <v>4.569419793841717</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>46.07715435974033</v>
+        <v>46.07715435974018</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>30.05517242412174</v>
+        <v>30.05517242412165</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>18.01202365927555</v>
+        <v>18.0120236592754</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>37.70933519806313</v>
+        <v>37.70933519806304</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.48244095334789</v>
+        <v>18.48244095334798</v>
       </c>
       <c r="C18">
-        <v>16.83626794620027</v>
+        <v>16.83626794620021</v>
       </c>
       <c r="D18">
-        <v>4.564247104532057</v>
+        <v>4.564247104532109</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>45.52360767173014</v>
+        <v>45.52360767173019</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>29.75103169668007</v>
+        <v>29.75103169668008</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>17.78290179427505</v>
+        <v>17.78290179427508</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>37.096988989777</v>
+        <v>37.09698898977705</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.3996190799596</v>
+        <v>18.39961907995958</v>
       </c>
       <c r="C19">
-        <v>16.75714122809511</v>
+        <v>16.75714122809513</v>
       </c>
       <c r="D19">
-        <v>4.562548652916621</v>
+        <v>4.562548652916627</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>45.33590636656631</v>
+        <v>45.33590636656641</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>29.64812480269372</v>
+        <v>29.6481248026938</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>17.70487771033261</v>
+        <v>17.70487771033257</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>36.88980969495305</v>
+        <v>36.88980969495304</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.77030552919447</v>
+        <v>18.7703055291945</v>
       </c>
       <c r="C20">
-        <v>17.11156829436019</v>
+        <v>17.11156829436006</v>
       </c>
       <c r="D20">
-        <v>4.570402930517316</v>
+        <v>4.570402930517222</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>46.17947523562015</v>
+        <v>46.17947523561997</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>30.11149819408476</v>
+        <v>30.11149819408462</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>18.05421766737776</v>
+        <v>18.05421766737771</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>37.82276273508913</v>
+        <v>37.82276273508904</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.98104555763766</v>
+        <v>19.98104555763745</v>
       </c>
       <c r="C21">
-        <v>18.27461344460608</v>
+        <v>18.27461344460601</v>
       </c>
       <c r="D21">
-        <v>4.60089424009745</v>
+        <v>4.600894240097411</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>48.99760334237598</v>
+        <v>48.99760334237575</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>31.67528690517165</v>
+        <v>31.67528690517155</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>19.19757502256848</v>
+        <v>19.19757502256828</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>40.98430373107082</v>
+        <v>40.98430373107072</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.74726139719395</v>
+        <v>20.74726139719392</v>
       </c>
       <c r="C22">
-        <v>19.01552237302247</v>
+        <v>19.01552237302252</v>
       </c>
       <c r="D22">
-        <v>4.624449745636324</v>
+        <v>4.624449745636284</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>50.83240074426548</v>
+        <v>50.83240074426551</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>32.70559960063375</v>
+        <v>32.7055996006338</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>19.92310737615714</v>
+        <v>19.92310737615708</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>43.09457242024347</v>
+        <v>43.09457242024344</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.34056048624759</v>
+        <v>20.34056048624763</v>
       </c>
       <c r="C23">
-        <v>18.62173870457062</v>
+        <v>18.62173870457045</v>
       </c>
       <c r="D23">
-        <v>4.611504302616181</v>
+        <v>4.611504302616167</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>49.85338447900337</v>
+        <v>49.85338447900333</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>32.15469794098553</v>
+        <v>32.1546979409855</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>19.5378026117179</v>
+        <v>19.53780261171785</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>41.9624155866977</v>
+        <v>41.96241558669762</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.75008182930467</v>
+        <v>18.75008182930463</v>
       </c>
       <c r="C24">
-        <v>17.09221288439775</v>
+        <v>17.09221288439771</v>
       </c>
       <c r="D24">
-        <v>4.569957459301998</v>
+        <v>4.569957459301987</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>46.13322150174255</v>
+        <v>46.13322150174264</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>30.08603227758663</v>
+        <v>30.08603227758668</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>18.03515010976178</v>
+        <v>18.03515010976172</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>37.77147864589727</v>
+        <v>37.77147864589728</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.92170249319961</v>
+        <v>16.92170249319966</v>
       </c>
       <c r="C25">
-        <v>15.35069925555579</v>
+        <v>15.3506992555558</v>
       </c>
       <c r="D25">
-        <v>4.537304398347322</v>
+        <v>4.537304398347333</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>42.06196689334198</v>
+        <v>42.06196689334205</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>27.87260310767855</v>
+        <v>27.87260310767856</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>16.31527519691437</v>
+        <v>16.31527519691443</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>33.30120174734718</v>
+        <v>33.30120174734719</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_54/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_54/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.47284733796189</v>
+        <v>15.35367203530958</v>
       </c>
       <c r="C2">
-        <v>13.98083662326641</v>
+        <v>13.84444165949078</v>
       </c>
       <c r="D2">
-        <v>4.520829870576813</v>
+        <v>4.640372412270287</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>38.99587648195509</v>
+        <v>39.12704270099583</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.062751280042776</v>
       </c>
       <c r="H2">
-        <v>26.24704142818577</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>26.39240474049107</v>
       </c>
       <c r="J2">
-        <v>14.95794883877581</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>14.81810973778938</v>
       </c>
       <c r="L2">
-        <v>29.9484623817626</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>29.91204961983999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.42435660991524</v>
+        <v>14.30655017034144</v>
       </c>
       <c r="C3">
-        <v>12.99415627051666</v>
+        <v>12.86068716539048</v>
       </c>
       <c r="D3">
-        <v>4.513284002024416</v>
+        <v>4.636278636562048</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>36.87260732826728</v>
+        <v>37.03695739929713</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.073738904205249</v>
       </c>
       <c r="H3">
-        <v>25.14603639955504</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>25.31247495201169</v>
       </c>
       <c r="J3">
-        <v>13.9788644429797</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>13.8391653708562</v>
       </c>
       <c r="L3">
-        <v>27.60300611647696</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>27.57084140949852</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.74696488030552</v>
+        <v>13.62988605258</v>
       </c>
       <c r="C4">
-        <v>12.35850570600964</v>
+        <v>12.22680187292689</v>
       </c>
       <c r="D4">
-        <v>4.510137345423872</v>
+        <v>4.635194829011724</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>35.54726628456007</v>
+        <v>35.73391787928975</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.080596193459587</v>
       </c>
       <c r="H4">
-        <v>24.47049376536561</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>24.65070428180609</v>
       </c>
       <c r="J4">
-        <v>13.34782250050672</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>13.207962434794</v>
       </c>
       <c r="L4">
-        <v>26.11806299408908</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>26.08838109053839</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.46236573918766</v>
+        <v>13.34555199802401</v>
       </c>
       <c r="C5">
-        <v>12.0918298767872</v>
+        <v>11.96083642633152</v>
       </c>
       <c r="D5">
-        <v>4.509189753263087</v>
+        <v>4.635076177287154</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>35.00201228339437</v>
+        <v>35.19824493871735</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.083422383033657</v>
       </c>
       <c r="H5">
-        <v>24.19542220370143</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>24.38144825264586</v>
       </c>
       <c r="J5">
-        <v>13.08307083601841</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>12.94307786593761</v>
       </c>
       <c r="L5">
-        <v>25.50058840552311</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>25.47189670954009</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.41458859731965</v>
+        <v>13.29781686832877</v>
       </c>
       <c r="C6">
-        <v>12.04708295054523</v>
+        <v>11.91620686804889</v>
       </c>
       <c r="D6">
-        <v>4.509051557654454</v>
+        <v>4.635074991400765</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>34.91117207569727</v>
+        <v>35.10902559663457</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.083893695740311</v>
       </c>
       <c r="H6">
-        <v>24.14976381677655</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>24.33676757919678</v>
       </c>
       <c r="J6">
-        <v>13.0386480342409</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>12.89862875278658</v>
       </c>
       <c r="L6">
-        <v>25.39728291258185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>25.36875458913985</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.74316145341173</v>
+        <v>13.62608633266889</v>
       </c>
       <c r="C7">
-        <v>12.35494035087153</v>
+        <v>12.22324613667556</v>
       </c>
       <c r="D7">
-        <v>4.510123259292384</v>
+        <v>4.635191966355388</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>35.53993324802154</v>
+        <v>35.72671205208102</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.080634174875247</v>
       </c>
       <c r="H7">
-        <v>24.46678300435022</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>24.64707113780242</v>
       </c>
       <c r="J7">
-        <v>13.34428282647947</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>13.20442124870288</v>
       </c>
       <c r="L7">
-        <v>26.10978682182941</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>26.08011834822332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.11823913450221</v>
+        <v>14.99955769582199</v>
       </c>
       <c r="C8">
-        <v>13.6467294678172</v>
+        <v>13.51134937195177</v>
       </c>
       <c r="D8">
-        <v>4.517894579727756</v>
+        <v>4.638640822847212</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>38.26838531025238</v>
+        <v>38.41059995450644</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.066519314222607</v>
       </c>
       <c r="H8">
-        <v>25.86735504114494</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>26.01981002796366</v>
       </c>
       <c r="J8">
-        <v>14.62650741633982</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>14.48676512895869</v>
       </c>
       <c r="L8">
-        <v>29.14834960316703</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>29.1134344216152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.55317578761105</v>
+        <v>17.43054014748595</v>
       </c>
       <c r="C9">
-        <v>15.95040435409528</v>
+        <v>15.80756040363857</v>
       </c>
       <c r="D9">
-        <v>4.546960756466071</v>
+        <v>4.658646880893421</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>43.44323484671818</v>
+        <v>43.51275485157296</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.039513724740917</v>
       </c>
       <c r="H9">
-        <v>28.61706337153628</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>28.72161683652066</v>
       </c>
       <c r="J9">
-        <v>16.90839214632805</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>16.76709220276938</v>
       </c>
       <c r="L9">
-        <v>34.81091631726541</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>34.76409715106925</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.19037653107225</v>
+        <v>19.06442133164964</v>
       </c>
       <c r="C10">
-        <v>17.51411375026071</v>
+        <v>17.36560641657622</v>
       </c>
       <c r="D10">
-        <v>4.580113732348179</v>
+        <v>4.684564994642382</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>47.14626349205209</v>
+        <v>47.17026201930716</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2.019736281719379</v>
       </c>
       <c r="H10">
-        <v>30.64530142959234</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>30.71857860676121</v>
       </c>
       <c r="J10">
-        <v>18.45049792686592</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>18.30711618972738</v>
       </c>
       <c r="L10">
-        <v>38.8986332755843</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>38.84078957212693</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.90406927406218</v>
+        <v>19.77652022887998</v>
       </c>
       <c r="C11">
-        <v>18.20040233630999</v>
+        <v>18.04925677604167</v>
       </c>
       <c r="D11">
-        <v>4.598720024007588</v>
+        <v>4.69968927805076</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>48.81552237392857</v>
+        <v>48.82021096498956</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>2.010651328866917</v>
       </c>
       <c r="H11">
-        <v>31.57354851419598</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>31.63333056960929</v>
       </c>
       <c r="J11">
-        <v>19.12477264818946</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>18.98025647283897</v>
       </c>
       <c r="L11">
-        <v>40.7774436967958</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>40.71358497256475</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.17001543636874</v>
+        <v>20.04185105372293</v>
       </c>
       <c r="C12">
-        <v>18.45696145823225</v>
+        <v>18.3048049526108</v>
       </c>
       <c r="D12">
-        <v>4.606376407710414</v>
+        <v>4.705992368645591</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>49.44631153554126</v>
+        <v>49.44385505619579</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>2.007187228918595</v>
       </c>
       <c r="H12">
-        <v>31.92640126514651</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>31.98116141159698</v>
       </c>
       <c r="J12">
-        <v>19.37636417704967</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>19.23139201914026</v>
       </c>
       <c r="L12">
-        <v>41.49590545839006</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>41.42955367283505</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.11292854181523</v>
+        <v>19.98489720135177</v>
       </c>
       <c r="C13">
-        <v>18.40184975825893</v>
+        <v>18.24991156614229</v>
       </c>
       <c r="D13">
-        <v>4.604698382138601</v>
+        <v>4.704607483861365</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>49.31050072108212</v>
+        <v>49.30957626293869</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2.007934555698501</v>
       </c>
       <c r="H13">
-        <v>31.85033703512268</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>31.90617516020185</v>
       </c>
       <c r="J13">
-        <v>19.32234290096179</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>19.17747011590801</v>
       </c>
       <c r="L13">
-        <v>41.34077659172103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>41.27497286105065</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.92603438417664</v>
+        <v>19.79843494899079</v>
       </c>
       <c r="C14">
-        <v>18.22157446316873</v>
+        <v>18.0703459912675</v>
       </c>
       <c r="D14">
-        <v>4.599336996594726</v>
+        <v>4.70019566012113</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>48.86743796895673</v>
+        <v>48.87153560635834</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>2.010366887691856</v>
       </c>
       <c r="H14">
-        <v>31.60254699486216</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>31.66191424721315</v>
       </c>
       <c r="J14">
-        <v>19.14554516584451</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>19.00099200365878</v>
       </c>
       <c r="L14">
-        <v>40.83638205512565</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>40.77232308474734</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.81099917703609</v>
+        <v>19.68366277147186</v>
       </c>
       <c r="C15">
-        <v>18.11072684381504</v>
+        <v>17.95993143913343</v>
       </c>
       <c r="D15">
-        <v>4.59613601958652</v>
+        <v>4.697571540610493</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>48.59590911215279</v>
+        <v>48.60310354427599</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>2.01185327552029</v>
       </c>
       <c r="H15">
-        <v>31.45096380430448</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>31.51250363123802</v>
       </c>
       <c r="J15">
-        <v>19.03676963220948</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>18.89240882079987</v>
       </c>
       <c r="L15">
-        <v>40.52848823404354</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>40.46546718904164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.14312285647895</v>
+        <v>19.01727015440648</v>
       </c>
       <c r="C16">
-        <v>17.46878196542295</v>
+        <v>17.32044556579994</v>
       </c>
       <c r="D16">
-        <v>4.57897701315497</v>
+        <v>4.683651416059344</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>47.03693284583851</v>
+        <v>47.06221875018794</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>2.020327343846759</v>
       </c>
       <c r="H16">
-        <v>30.58479197630394</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>30.65896454560826</v>
       </c>
       <c r="J16">
-        <v>18.40589900391126</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>18.26258769056063</v>
       </c>
       <c r="L16">
-        <v>38.77656534261798</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>38.71908927678614</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.72555173197476</v>
+        <v>18.60058796540629</v>
       </c>
       <c r="C17">
-        <v>17.06873892495176</v>
+        <v>16.92189335298538</v>
       </c>
       <c r="D17">
-        <v>4.569419793841717</v>
+        <v>4.676027694487474</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>46.07715435974018</v>
+        <v>46.11387526731826</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2.02549627874197</v>
       </c>
       <c r="H17">
-        <v>30.05517242412165</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>30.13727249233268</v>
       </c>
       <c r="J17">
-        <v>18.0120236592754</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>17.86930871184212</v>
       </c>
       <c r="L17">
-        <v>37.70933519806304</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>37.65496390541927</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.48244095334798</v>
+        <v>18.35798059015275</v>
       </c>
       <c r="C18">
-        <v>16.83626794620021</v>
+        <v>16.69027426400894</v>
       </c>
       <c r="D18">
-        <v>4.564247104532109</v>
+        <v>4.671949671582612</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>45.52360767173019</v>
+        <v>45.56703968765865</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2.028461829044316</v>
       </c>
       <c r="H18">
-        <v>29.75103169668008</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>29.83776177340851</v>
       </c>
       <c r="J18">
-        <v>17.78290179427508</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>17.6405122218448</v>
       </c>
       <c r="L18">
-        <v>37.09698898977705</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>37.04431510313507</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.39961907995958</v>
+        <v>18.27532779781123</v>
       </c>
       <c r="C19">
-        <v>16.75714122809513</v>
+        <v>16.6114350959083</v>
       </c>
       <c r="D19">
-        <v>4.562548652916627</v>
+        <v>4.670619051683719</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>45.33590636656641</v>
+        <v>45.38163456421292</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2.029464922553413</v>
       </c>
       <c r="H19">
-        <v>29.6481248026938</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>29.73643500365194</v>
       </c>
       <c r="J19">
-        <v>17.70487771033257</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>17.5625952507159</v>
       </c>
       <c r="L19">
-        <v>36.88980969495304</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>36.83769699407375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.7703055291945</v>
+        <v>18.64524794864606</v>
       </c>
       <c r="C20">
-        <v>17.11156829436006</v>
+        <v>16.96456461890585</v>
       </c>
       <c r="D20">
-        <v>4.570402930517222</v>
+        <v>4.676806857327213</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>46.17947523561997</v>
+        <v>46.21496521825358</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2.02494688305748</v>
       </c>
       <c r="H20">
-        <v>30.11149819408462</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>30.19274718894904</v>
       </c>
       <c r="J20">
-        <v>18.05421766737771</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>17.91144105599571</v>
       </c>
       <c r="L20">
-        <v>37.82276273508904</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>37.76807049074576</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.98104555763745</v>
+        <v>19.85331957844984</v>
       </c>
       <c r="C21">
-        <v>18.27461344460601</v>
+        <v>18.12317686280019</v>
       </c>
       <c r="D21">
-        <v>4.600894240097411</v>
+        <v>4.701475006011623</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>48.99760334237575</v>
+        <v>49.00022164607068</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>2.00965320370678</v>
       </c>
       <c r="H21">
-        <v>31.67528690517155</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>31.73361534086224</v>
       </c>
       <c r="J21">
-        <v>19.19757502256828</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>19.05292869315282</v>
       </c>
       <c r="L21">
-        <v>40.98430373107072</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>40.9197388835508</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.74726139719392</v>
+        <v>20.61772311966147</v>
       </c>
       <c r="C22">
-        <v>19.01552237302252</v>
+        <v>18.86111705813686</v>
       </c>
       <c r="D22">
-        <v>4.624449745636284</v>
+        <v>4.721017086677315</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>50.83240074426551</v>
+        <v>50.81448668936422</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.999511347876604</v>
       </c>
       <c r="H22">
-        <v>32.7055996006338</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>32.74944935213426</v>
       </c>
       <c r="J22">
-        <v>19.92310737615708</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>19.77708529737929</v>
       </c>
       <c r="L22">
-        <v>43.09457242024344</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>43.02223451684698</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.34056048624763</v>
+        <v>20.21199557069224</v>
       </c>
       <c r="C23">
-        <v>18.62173870457045</v>
+        <v>18.46892567733787</v>
       </c>
       <c r="D23">
-        <v>4.611504302616167</v>
+        <v>4.710235727891946</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>49.85338447900333</v>
+        <v>49.84635571172006</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>2.004942218399966</v>
       </c>
       <c r="H23">
-        <v>32.1546979409855</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>32.20623713710779</v>
       </c>
       <c r="J23">
-        <v>19.53780261171785</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>19.39252876052031</v>
       </c>
       <c r="L23">
-        <v>41.96241558669762</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>41.89438200506231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.75008182930463</v>
+        <v>18.62506668592351</v>
       </c>
       <c r="C24">
-        <v>17.09221288439771</v>
+        <v>16.94528070353564</v>
       </c>
       <c r="D24">
-        <v>4.569957459301987</v>
+        <v>4.676453654889342</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>46.13322150174264</v>
+        <v>46.16926755648031</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>2.025195283170396</v>
       </c>
       <c r="H24">
-        <v>30.08603227758668</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>30.16766581608073</v>
       </c>
       <c r="J24">
-        <v>18.03515010976172</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>17.89240143115371</v>
       </c>
       <c r="L24">
-        <v>37.77147864589728</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>37.71693177176466</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.92170249319966</v>
+        <v>16.80021268539022</v>
       </c>
       <c r="C25">
-        <v>15.3506992555558</v>
+        <v>15.20990083995092</v>
       </c>
       <c r="D25">
-        <v>4.537304398347333</v>
+        <v>4.65152459933331</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>42.06196689334205</v>
+        <v>42.14967653770198</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.046779321617585</v>
       </c>
       <c r="H25">
-        <v>27.87260310767856</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>27.98940240942717</v>
       </c>
       <c r="J25">
-        <v>16.31527519691443</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>16.17456907331851</v>
       </c>
       <c r="L25">
-        <v>33.30120174734719</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>33.25788101311201</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_54/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_54/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.35367203530958</v>
+        <v>15.52892053216268</v>
       </c>
       <c r="C2">
-        <v>13.84444165949078</v>
+        <v>9.64283652114556</v>
       </c>
       <c r="D2">
-        <v>4.640372412270287</v>
+        <v>4.258843075732693</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>39.12704270099583</v>
+        <v>36.34940047012806</v>
       </c>
       <c r="G2">
-        <v>2.062751280042776</v>
+        <v>2.065609941857044</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>26.39240474049107</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.81810973778938</v>
+        <v>13.57084975177526</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>29.91204961983999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>29.87085329091833</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>28.58230451515821</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.30655017034144</v>
+        <v>14.46704741750024</v>
       </c>
       <c r="C3">
-        <v>12.86068716539048</v>
+        <v>9.103584180877956</v>
       </c>
       <c r="D3">
-        <v>4.636278636562048</v>
+        <v>4.286080236408705</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>37.03695739929713</v>
+        <v>34.47119666563652</v>
       </c>
       <c r="G3">
-        <v>2.073738904205249</v>
+        <v>2.075685387382389</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>25.31247495201169</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.8391653708562</v>
+        <v>12.7265481568198</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>27.57084140949852</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>27.5378163374793</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>27.25901458612729</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.62988605258</v>
+        <v>13.7801528293306</v>
       </c>
       <c r="C4">
-        <v>12.22680187292689</v>
+        <v>8.756629409860658</v>
       </c>
       <c r="D4">
-        <v>4.635194829011724</v>
+        <v>4.30338001882973</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>35.73391787928975</v>
+        <v>33.30235746985973</v>
       </c>
       <c r="G4">
-        <v>2.080596193459587</v>
+        <v>2.081980839204175</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>24.65070428180609</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.207962434794</v>
+        <v>12.18189320417115</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>26.08838109053839</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>26.05980107547898</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>26.4419752383295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.34555199802401</v>
+        <v>13.49136041847254</v>
       </c>
       <c r="C5">
-        <v>11.96083642633152</v>
+        <v>8.611272491158521</v>
       </c>
       <c r="D5">
-        <v>4.635076177287154</v>
+        <v>4.310562306201944</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>35.19824493871735</v>
+        <v>32.82241814745789</v>
       </c>
       <c r="G5">
-        <v>2.083422383033657</v>
+        <v>2.084577082847687</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>24.38144825264586</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.94307786593761</v>
+        <v>11.95331161718027</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>25.47189670954009</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>25.44501598848687</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>26.10807934414942</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.29781686832877</v>
+        <v>13.44286763510362</v>
       </c>
       <c r="C6">
-        <v>11.91620686804889</v>
+        <v>8.58689698419429</v>
       </c>
       <c r="D6">
-        <v>4.635074991400765</v>
+        <v>4.311762594704558</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>35.10902559663457</v>
+        <v>32.74251651877162</v>
       </c>
       <c r="G6">
-        <v>2.083893695740311</v>
+        <v>2.085010138468809</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>24.33676757919678</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.89862875278658</v>
+        <v>11.91495476720223</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>25.36875458913985</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>25.34215006002595</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>26.05258617121941</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.62608633266889</v>
+        <v>13.7762941479571</v>
       </c>
       <c r="C7">
-        <v>12.22324613667556</v>
+        <v>8.754685121311736</v>
       </c>
       <c r="D7">
-        <v>4.635191966355388</v>
+        <v>4.303476360233361</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>35.72671205208102</v>
+        <v>33.29589904713434</v>
       </c>
       <c r="G7">
-        <v>2.080634174875247</v>
+        <v>2.082015724184775</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>24.64707113780242</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.20442124870288</v>
+        <v>12.1788373480815</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>26.08011834822332</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>26.05156166750969</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>26.43747571964156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.99955769582199</v>
+        <v>15.16996741569547</v>
       </c>
       <c r="C8">
-        <v>13.51134937195177</v>
+        <v>9.460198767142174</v>
       </c>
       <c r="D8">
-        <v>4.638640822847212</v>
+        <v>4.268106830683862</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>38.41059995450644</v>
+        <v>35.70517722394187</v>
       </c>
       <c r="G8">
-        <v>2.066519314222607</v>
+        <v>2.069063465952723</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>26.01981002796366</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.48676512895869</v>
+        <v>13.28516109239822</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>29.1134344216152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>29.07519588115471</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>28.12706744796322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.43054014748595</v>
+        <v>17.63090363889801</v>
       </c>
       <c r="C9">
-        <v>15.80756040363857</v>
+        <v>10.71770468510994</v>
       </c>
       <c r="D9">
-        <v>4.658646880893421</v>
+        <v>4.203992831170888</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>43.51275485157296</v>
+        <v>40.29966154015901</v>
       </c>
       <c r="G9">
-        <v>2.039513724740917</v>
+        <v>2.044353300751787</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>28.72161683652066</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>16.76709220276938</v>
+        <v>15.24834656613323</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>34.76409715106925</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>34.70036716327063</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>31.40037825606943</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.06442133164964</v>
+        <v>19.28026118940294</v>
       </c>
       <c r="C10">
-        <v>17.36560641657622</v>
+        <v>11.56484386642594</v>
       </c>
       <c r="D10">
-        <v>4.684564994642382</v>
+        <v>4.161261496569893</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>47.17026201930716</v>
+        <v>43.5988541239694</v>
       </c>
       <c r="G10">
-        <v>2.019736281719379</v>
+        <v>2.026322599998645</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>30.71857860676121</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>18.30711618972738</v>
+        <v>16.56837107389199</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>38.84078957212693</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>38.75027379219804</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>33.78347678038248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.77652022887998</v>
+        <v>19.99779857088998</v>
       </c>
       <c r="C11">
-        <v>18.04925677604167</v>
+        <v>11.93355276219485</v>
       </c>
       <c r="D11">
-        <v>4.69968927805076</v>
+        <v>4.143124589689251</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>48.82021096498956</v>
+        <v>45.08749036450376</v>
       </c>
       <c r="G11">
-        <v>2.010651328866917</v>
+        <v>2.018060663900889</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>31.63333056960929</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>18.98025647283897</v>
+        <v>17.14319297595197</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>40.71358497256475</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>40.60755262231891</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>34.86615058713073</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.04185105372293</v>
+        <v>20.26494032793592</v>
       </c>
       <c r="C12">
-        <v>18.3048049526108</v>
+        <v>12.07075850110749</v>
       </c>
       <c r="D12">
-        <v>4.705992368645591</v>
+        <v>4.136482804073925</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>49.44385505619579</v>
+        <v>45.65011328067184</v>
       </c>
       <c r="G12">
-        <v>2.007187228918595</v>
+        <v>2.014914033554615</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>31.98116141159698</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>19.23139201914026</v>
+        <v>17.35724289715996</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>41.42955367283505</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>41.31694494603923</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>35.27643538190797</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.98489720135177</v>
+        <v>20.20760781799279</v>
       </c>
       <c r="C13">
-        <v>18.24991156614229</v>
+        <v>12.04131688310205</v>
       </c>
       <c r="D13">
-        <v>4.704607483861365</v>
+        <v>4.13790244176926</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>49.30957626293869</v>
+        <v>45.52897708644462</v>
       </c>
       <c r="G13">
-        <v>2.007934555698501</v>
+        <v>2.015592696066841</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>31.90617516020185</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>19.17747011590801</v>
+        <v>17.31130354502629</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>41.27497286105065</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>41.16381640868838</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>35.18804930928653</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.79843494899079</v>
+        <v>20.01986736796565</v>
       </c>
       <c r="C14">
-        <v>18.0703459912675</v>
+        <v>11.94488940214561</v>
       </c>
       <c r="D14">
-        <v>4.70019566012113</v>
+        <v>4.142573373092715</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>48.87153560635834</v>
+        <v>45.13379469156985</v>
       </c>
       <c r="G14">
-        <v>2.010366887691856</v>
+        <v>2.01780221296633</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>31.66191424721315</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>19.00099200365878</v>
+        <v>17.16087523491342</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>40.77232308474734</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>40.66576540751641</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>34.89989523339862</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.68366277147186</v>
+        <v>19.90427932593731</v>
       </c>
       <c r="C15">
-        <v>17.95993143913343</v>
+        <v>11.88550904936826</v>
       </c>
       <c r="D15">
-        <v>4.697571540610493</v>
+        <v>4.145465242426785</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>48.60310354427599</v>
+        <v>44.89161668826273</v>
       </c>
       <c r="G15">
-        <v>2.01185327552029</v>
+        <v>2.019152936701428</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>31.51250363123802</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>18.89240882079987</v>
+        <v>17.06826366092749</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>40.46546718904164</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>40.36162668769361</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>34.7234504856359</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.01727015440648</v>
+        <v>19.23272085181812</v>
       </c>
       <c r="C16">
-        <v>17.32044556579994</v>
+        <v>11.54041141344879</v>
       </c>
       <c r="D16">
-        <v>4.683651416059344</v>
+        <v>4.162476112359908</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>47.06221875018794</v>
+        <v>43.50137296847158</v>
       </c>
       <c r="G16">
-        <v>2.020327343846759</v>
+        <v>2.026860584397723</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>30.65896454560826</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>18.26258769056063</v>
+        <v>16.53029461696092</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>38.71908927678614</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>38.62950390860894</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>33.71273096405818</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.60058796540629</v>
+        <v>18.81244701117287</v>
       </c>
       <c r="C17">
-        <v>16.92189335298538</v>
+        <v>11.32443051899746</v>
       </c>
       <c r="D17">
-        <v>4.676027694487474</v>
+        <v>4.173270141259311</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>46.11387526731826</v>
+        <v>42.64576460475962</v>
       </c>
       <c r="G17">
-        <v>2.02549627874197</v>
+        <v>2.031567705884553</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>30.13727249233268</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>17.86930871184212</v>
+        <v>16.19374466424402</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>37.65496390541927</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>37.57314321491111</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>33.09261505201779</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.35798059015275</v>
+        <v>18.56762427386462</v>
       </c>
       <c r="C18">
-        <v>16.69027426400894</v>
+        <v>11.1986381267702</v>
       </c>
       <c r="D18">
-        <v>4.671949671582612</v>
+        <v>4.179598295654458</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>45.56703968765865</v>
+        <v>42.15243990794168</v>
       </c>
       <c r="G18">
-        <v>2.028461829044316</v>
+        <v>2.034270181647322</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>29.83776177340851</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>17.6405122218448</v>
+        <v>15.99775040821837</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>37.04431510313507</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>36.96666457203784</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>32.73576637793527</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.27532779781123</v>
+        <v>18.48419623614326</v>
       </c>
       <c r="C19">
-        <v>16.6114350959083</v>
+        <v>11.15577831249388</v>
       </c>
       <c r="D19">
-        <v>4.670619051683719</v>
+        <v>4.181760416933825</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>45.38163456421292</v>
+        <v>41.98518677574332</v>
       </c>
       <c r="G19">
-        <v>2.029464922553413</v>
+        <v>2.035184595277343</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>29.73643500365194</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>17.5625952507159</v>
+        <v>15.93097240019597</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>36.83769699407375</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>36.76141274585141</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>32.61490185745569</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.64524794864606</v>
+        <v>18.85750493417463</v>
       </c>
       <c r="C20">
-        <v>16.96456461890585</v>
+        <v>11.34758419329311</v>
       </c>
       <c r="D20">
-        <v>4.676806857327213</v>
+        <v>4.172108454711456</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>46.21496521825358</v>
+        <v>42.73696605020144</v>
       </c>
       <c r="G20">
-        <v>2.02494688305748</v>
+        <v>2.031067196310063</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>30.19274718894904</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>17.91144105599571</v>
+        <v>16.22982089325858</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>37.76807049074576</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>37.68545513743223</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>33.15864257477621</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.85331957844984</v>
+        <v>20.07513433259052</v>
       </c>
       <c r="C21">
-        <v>18.12317686280019</v>
+        <v>11.97327836777432</v>
       </c>
       <c r="D21">
-        <v>4.701475006011623</v>
+        <v>4.141194907207052</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>49.00022164607068</v>
+        <v>45.24989217841887</v>
       </c>
       <c r="G21">
-        <v>2.00965320370678</v>
+        <v>2.017153801163175</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>31.73361534086224</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>19.05292869315282</v>
+        <v>17.20515749258888</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>40.9197388835508</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>40.81185177950594</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>34.98451975227863</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.61772311966147</v>
+        <v>20.84432661010724</v>
       </c>
       <c r="C22">
-        <v>18.86111705813686</v>
+        <v>12.36808810927629</v>
       </c>
       <c r="D22">
-        <v>4.721017086677315</v>
+        <v>4.122335619424089</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>50.81448668936422</v>
+        <v>46.88642012228551</v>
       </c>
       <c r="G22">
-        <v>1.999511347876604</v>
+        <v>2.007949131411788</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>32.74944935213426</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>19.77708529737929</v>
+        <v>17.82150385413133</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>43.02223451684698</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>42.89354693612529</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>36.18000360299588</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.21199557069224</v>
+        <v>20.4361829821805</v>
       </c>
       <c r="C23">
-        <v>18.46892567733787</v>
+        <v>12.15867744385606</v>
       </c>
       <c r="D23">
-        <v>4.710235727891946</v>
+        <v>4.132262587326874</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>49.84635571172006</v>
+        <v>46.01320337675416</v>
       </c>
       <c r="G23">
-        <v>2.004942218399966</v>
+        <v>2.012875880985516</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>32.20623713710779</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>19.39252876052031</v>
+        <v>17.49445847044841</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>41.89438200506231</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>41.77729481948359</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>35.54152092166886</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.62506668592351</v>
+        <v>18.83714423021838</v>
       </c>
       <c r="C24">
-        <v>16.94528070353564</v>
+        <v>11.33712146850082</v>
       </c>
       <c r="D24">
-        <v>4.676453654889342</v>
+        <v>4.172633274385137</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>46.16926755648031</v>
+        <v>42.69573835793201</v>
       </c>
       <c r="G24">
-        <v>2.025195283170396</v>
+        <v>2.031293487572663</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>30.16766581608073</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>17.89240143115371</v>
+        <v>16.21351864480241</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>37.71693177176466</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>37.63467658584169</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>33.12879261219395</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.80021268539022</v>
+        <v>16.99356517236713</v>
       </c>
       <c r="C25">
-        <v>15.20990083995092</v>
+        <v>10.39100810734325</v>
       </c>
       <c r="D25">
-        <v>4.65152459933331</v>
+        <v>4.220669514719781</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>42.14967653770198</v>
+        <v>39.07095159852677</v>
       </c>
       <c r="G25">
-        <v>2.046779321617585</v>
+        <v>2.05099163436766</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>27.98940240942717</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>16.17456907331851</v>
+        <v>14.73901535503546</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>33.25788101311201</v>
+        <v>33.20207712640787</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>30.51930219444387</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_54/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_54/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.52892053216268</v>
+        <v>13.38274331998808</v>
       </c>
       <c r="C2">
-        <v>9.64283652114556</v>
+        <v>6.735052082866859</v>
       </c>
       <c r="D2">
-        <v>4.258843075732693</v>
+        <v>6.468976738996705</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>36.34940047012806</v>
+        <v>40.90194628530981</v>
       </c>
       <c r="G2">
-        <v>2.065609941857044</v>
+        <v>2.131444039789621</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>30.73802227819104</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.57084975177526</v>
+        <v>11.43956984213508</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>8.084260271840446</v>
       </c>
       <c r="M2">
-        <v>29.87085329091833</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>28.58230451515821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.46704741750024</v>
+        <v>12.51429519454162</v>
       </c>
       <c r="C3">
-        <v>9.103584180877956</v>
+        <v>6.322634560872229</v>
       </c>
       <c r="D3">
-        <v>4.286080236408705</v>
+        <v>6.477022409576273</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>34.47119666563652</v>
+        <v>39.38015947157032</v>
       </c>
       <c r="G3">
-        <v>2.075685387382389</v>
+        <v>2.1404896499763</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>29.89841040281438</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.7265481568198</v>
+        <v>10.64706712094538</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.810794872624053</v>
       </c>
       <c r="M3">
-        <v>27.5378163374793</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>27.25901458612729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.7801528293306</v>
+        <v>12.00091801965831</v>
       </c>
       <c r="C4">
-        <v>8.756629409860658</v>
+        <v>6.058030220764211</v>
       </c>
       <c r="D4">
-        <v>4.30338001882973</v>
+        <v>6.48202196824002</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>33.30235746985973</v>
+        <v>38.441194486984</v>
       </c>
       <c r="G4">
-        <v>2.081980839204175</v>
+        <v>2.146181799362899</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>29.38700544633684</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.18189320417115</v>
+        <v>10.13515376806786</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>7.644053538615047</v>
       </c>
       <c r="M4">
-        <v>26.05980107547898</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>26.4419752383295</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.49136041847254</v>
+        <v>11.78793483676904</v>
       </c>
       <c r="C5">
-        <v>8.611272491158521</v>
+        <v>5.947326185844523</v>
       </c>
       <c r="D5">
-        <v>4.310562306201944</v>
+        <v>6.484072875712791</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>32.82241814745789</v>
+        <v>38.05776631156457</v>
       </c>
       <c r="G5">
-        <v>2.084577082847687</v>
+        <v>2.148537906625493</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>29.17976027282039</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.95331161718027</v>
+        <v>9.920098185718523</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>7.576472782700783</v>
       </c>
       <c r="M5">
-        <v>25.44501598848687</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>26.10807934414942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.44286763510362</v>
+        <v>11.75234736229037</v>
       </c>
       <c r="C6">
-        <v>8.58689698419429</v>
+        <v>5.928769957495769</v>
       </c>
       <c r="D6">
-        <v>4.311762594704558</v>
+        <v>6.484414206250936</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>32.74251651877162</v>
+        <v>37.9940619086119</v>
       </c>
       <c r="G6">
-        <v>2.085010138468809</v>
+        <v>2.148931391454663</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>29.14542093596423</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.91495476720223</v>
+        <v>9.883996713457655</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>7.565275543501075</v>
       </c>
       <c r="M6">
-        <v>25.34215006002595</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>26.05258617121941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.7762941479571</v>
+        <v>11.99806066947838</v>
       </c>
       <c r="C7">
-        <v>8.754685121311736</v>
+        <v>6.056548882598106</v>
       </c>
       <c r="D7">
-        <v>4.303476360233361</v>
+        <v>6.482049574432981</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>33.29589904713434</v>
+        <v>38.4360261392383</v>
       </c>
       <c r="G7">
-        <v>2.082015724184775</v>
+        <v>2.146213424548816</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>29.38420561603727</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.1788373480815</v>
+        <v>10.13227966026711</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>7.643140529577057</v>
       </c>
       <c r="M7">
-        <v>26.05156166750969</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>26.43747571964156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.16996741569547</v>
+        <v>13.05919126343838</v>
       </c>
       <c r="C8">
-        <v>9.460198767142174</v>
+        <v>6.595200298252678</v>
       </c>
       <c r="D8">
-        <v>4.268106830683862</v>
+        <v>6.471737658512041</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>35.70517722394187</v>
+        <v>40.37838586067501</v>
       </c>
       <c r="G8">
-        <v>2.069063465952723</v>
+        <v>2.134535413010792</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>30.44773744395651</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.28516109239822</v>
+        <v>11.17151809767328</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.989769392789817</v>
       </c>
       <c r="M8">
-        <v>29.07519588115471</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>28.12706744796322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.63090363889801</v>
+        <v>15.28377963659974</v>
       </c>
       <c r="C9">
-        <v>10.71770468510994</v>
+        <v>7.562386727907199</v>
       </c>
       <c r="D9">
-        <v>4.203992831170888</v>
+        <v>6.452056999337163</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>40.29966154015901</v>
+        <v>44.1379267783813</v>
       </c>
       <c r="G9">
-        <v>2.044353300751787</v>
+        <v>2.112643352843455</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>32.56152155754636</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>15.24834656613323</v>
+        <v>13.01255811588149</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>8.675928356292234</v>
       </c>
       <c r="M9">
-        <v>34.70036716327063</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>31.40037825606943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.28026118940294</v>
+        <v>16.78243086898096</v>
       </c>
       <c r="C10">
-        <v>11.56484386642594</v>
+        <v>8.220985935114133</v>
       </c>
       <c r="D10">
-        <v>4.161261496569893</v>
+        <v>6.438034043091739</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>43.5988541239694</v>
+        <v>46.85680614661346</v>
       </c>
       <c r="G10">
-        <v>2.026322599998645</v>
+        <v>2.097040741597785</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>34.12725351514328</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>16.56837107389199</v>
+        <v>14.25106064293784</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>9.180884168291065</v>
       </c>
       <c r="M10">
-        <v>38.75027379219804</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>33.78347678038248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.99779857088998</v>
+        <v>17.43624877582383</v>
       </c>
       <c r="C11">
-        <v>11.93355276219485</v>
+        <v>8.510006828217517</v>
       </c>
       <c r="D11">
-        <v>4.143124589689251</v>
+        <v>6.431777326737712</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>45.08749036450376</v>
+        <v>48.0828362278977</v>
       </c>
       <c r="G11">
-        <v>2.018060663900889</v>
+        <v>2.090014071654307</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>34.84188729749497</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>17.14319297595197</v>
+        <v>14.79115044448065</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.410364249229191</v>
       </c>
       <c r="M11">
-        <v>40.60755262231891</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>34.86615058713073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.26494032793592</v>
+        <v>17.67995997207859</v>
       </c>
       <c r="C12">
-        <v>12.07075850110749</v>
+        <v>8.618000248226561</v>
       </c>
       <c r="D12">
-        <v>4.136482804073925</v>
+        <v>6.429428466784041</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>45.65011328067184</v>
+        <v>48.54551446136578</v>
       </c>
       <c r="G12">
-        <v>2.014914033554615</v>
+        <v>2.087360379930932</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>35.11284518228978</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>17.35724289715996</v>
+        <v>14.99244734986715</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.497211516393973</v>
       </c>
       <c r="M12">
-        <v>41.31694494603923</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>35.27643538190797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.20760781799279</v>
+        <v>17.62764236089989</v>
       </c>
       <c r="C13">
-        <v>12.04131688310205</v>
+        <v>8.59480532426705</v>
       </c>
       <c r="D13">
-        <v>4.13790244176926</v>
+        <v>6.429933378000825</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>45.52897708644462</v>
+        <v>48.44593912420819</v>
       </c>
       <c r="G13">
-        <v>2.015592696066841</v>
+        <v>2.087931633973601</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>35.05447398021896</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>17.31130354502629</v>
+        <v>14.94923563979997</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.478509867376225</v>
       </c>
       <c r="M13">
-        <v>41.16381640868838</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>35.18804930928653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.01986736796565</v>
+        <v>17.45637585166536</v>
       </c>
       <c r="C14">
-        <v>11.94488940214561</v>
+        <v>8.518920190453244</v>
       </c>
       <c r="D14">
-        <v>4.142573373092715</v>
+        <v>6.431583657638824</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>45.13379469156985</v>
+        <v>48.12093293599108</v>
       </c>
       <c r="G14">
-        <v>2.01780221296633</v>
+        <v>2.089795626140398</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>34.86417219310744</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>17.16087523491342</v>
+        <v>14.80777508271768</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.417510326111154</v>
       </c>
       <c r="M14">
-        <v>40.66576540751641</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>34.89989523339862</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.90427932593731</v>
+        <v>17.35096990797819</v>
       </c>
       <c r="C15">
-        <v>11.88550904936826</v>
+        <v>8.472251417324255</v>
       </c>
       <c r="D15">
-        <v>4.145465242426785</v>
+        <v>6.432597252151047</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>44.89161668826273</v>
+        <v>47.92164989183667</v>
       </c>
       <c r="G15">
-        <v>2.019152936701428</v>
+        <v>2.090938210587839</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>34.74765194352006</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>17.06826366092749</v>
+        <v>14.72071065455466</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.380139258472395</v>
       </c>
       <c r="M15">
-        <v>40.36162668769361</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>34.7234504856359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.23272085181812</v>
+        <v>16.7391520182745</v>
       </c>
       <c r="C16">
-        <v>11.54041141344879</v>
+        <v>8.201890495718983</v>
       </c>
       <c r="D16">
-        <v>4.162476112359908</v>
+        <v>6.438445629088323</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>43.50137296847158</v>
+        <v>46.77645983871317</v>
       </c>
       <c r="G16">
-        <v>2.026860584397723</v>
+        <v>2.097501126324138</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>34.0805975175594</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>16.53029461696092</v>
+        <v>14.21530615893585</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.165880581884766</v>
       </c>
       <c r="M16">
-        <v>38.62950390860894</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>33.71273096405818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.81244701117287</v>
+        <v>16.35676389154742</v>
       </c>
       <c r="C17">
-        <v>11.32443051899746</v>
+        <v>8.033368845043436</v>
       </c>
       <c r="D17">
-        <v>4.173270141259311</v>
+        <v>6.442066649399997</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>42.64576460475962</v>
+        <v>46.07110571065974</v>
       </c>
       <c r="G17">
-        <v>2.031567705884553</v>
+        <v>2.10154338083504</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>33.67197865326865</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>16.19374466424402</v>
+        <v>13.89937424027765</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.034363706481615</v>
       </c>
       <c r="M17">
-        <v>37.57314321491111</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>33.09261505201779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.56762427386462</v>
+        <v>16.13418650094324</v>
       </c>
       <c r="C18">
-        <v>11.1986381267702</v>
+        <v>7.935439140796541</v>
       </c>
       <c r="D18">
-        <v>4.179598295654458</v>
+        <v>6.444160693815139</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>42.15243990794168</v>
+        <v>45.6643859517426</v>
       </c>
       <c r="G18">
-        <v>2.034270181647322</v>
+        <v>2.103875266344136</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>33.4371733522951</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.99775040821837</v>
+        <v>13.71545602444046</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>8.958697644103179</v>
       </c>
       <c r="M18">
-        <v>36.96666457203784</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>32.73576637793527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.48419623614326</v>
+        <v>16.05836854893236</v>
       </c>
       <c r="C19">
-        <v>11.15577831249388</v>
+        <v>7.902108064131233</v>
       </c>
       <c r="D19">
-        <v>4.181760416933825</v>
+        <v>6.4448715676921</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>41.98518677574332</v>
+        <v>45.52650502702845</v>
       </c>
       <c r="G19">
-        <v>2.035184595277343</v>
+        <v>2.104666073641087</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>33.35771090643068</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.93097240019597</v>
+        <v>13.65280245775149</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>8.933075613090971</v>
       </c>
       <c r="M19">
-        <v>36.76141274585141</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>32.61490185745569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.85750493417463</v>
+        <v>16.39774180237827</v>
       </c>
       <c r="C20">
-        <v>11.34758419329311</v>
+        <v>8.051411346795815</v>
       </c>
       <c r="D20">
-        <v>4.172108454711456</v>
+        <v>6.441679993927742</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>42.73696605020144</v>
+        <v>46.14629780783696</v>
       </c>
       <c r="G20">
-        <v>2.031067196310063</v>
+        <v>2.101112384223178</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>33.71545401807236</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>16.22982089325858</v>
+        <v>13.93323279113509</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>9.048366262523915</v>
       </c>
       <c r="M20">
-        <v>37.68545513743223</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>33.15864257477621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.07513433259052</v>
+        <v>17.50678495777115</v>
       </c>
       <c r="C21">
-        <v>11.97327836777432</v>
+        <v>8.541248313391931</v>
       </c>
       <c r="D21">
-        <v>4.141194907207052</v>
+        <v>6.431098351640495</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>45.24989217841887</v>
+        <v>48.21643831631843</v>
       </c>
       <c r="G21">
-        <v>2.017153801163175</v>
+        <v>2.089247958292813</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>34.92005899364658</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>17.20515749258888</v>
+        <v>14.84941187266013</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>9.435428861642569</v>
       </c>
       <c r="M21">
-        <v>40.81185177950594</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>34.98451975227863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.84432661010724</v>
+        <v>18.20909659685779</v>
       </c>
       <c r="C22">
-        <v>12.36808810927629</v>
+        <v>8.852958454412201</v>
       </c>
       <c r="D22">
-        <v>4.122335619424089</v>
+        <v>6.424303306844028</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>46.88642012228551</v>
+        <v>49.56014453269736</v>
       </c>
       <c r="G22">
-        <v>2.007949131411788</v>
+        <v>2.081533909929064</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>35.70935511952667</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>17.82150385413133</v>
+        <v>15.42946834337605</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.688095539764593</v>
       </c>
       <c r="M22">
-        <v>42.89354693612529</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>36.18000360299588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.4361829821805</v>
+        <v>17.83626889982353</v>
       </c>
       <c r="C23">
-        <v>12.15867744385606</v>
+        <v>8.687338365067074</v>
       </c>
       <c r="D23">
-        <v>4.132262587326874</v>
+        <v>6.427917861742547</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>46.01320337675416</v>
+        <v>48.84382385350191</v>
       </c>
       <c r="G23">
-        <v>2.012875880985516</v>
+        <v>2.085648479282264</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>35.28789891067511</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>17.49445847044841</v>
+        <v>15.1215483362429</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>9.553272825512348</v>
       </c>
       <c r="M23">
-        <v>41.77729481948359</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>35.54152092166886</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.83714423021838</v>
+        <v>16.37922422557027</v>
       </c>
       <c r="C24">
-        <v>11.33712146850082</v>
+        <v>8.043257589770123</v>
       </c>
       <c r="D24">
-        <v>4.172633274385137</v>
+        <v>6.441854762853823</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>42.69573835793201</v>
+        <v>46.11230720160741</v>
       </c>
       <c r="G24">
-        <v>2.031293487572663</v>
+        <v>2.101307212834441</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>33.69579844658276</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>16.21351864480241</v>
+        <v>13.91793246634784</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>9.042035877414518</v>
       </c>
       <c r="M24">
-        <v>37.63467658584169</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>33.12879261219395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.99356517236713</v>
+        <v>14.70627715085957</v>
       </c>
       <c r="C25">
-        <v>10.39100810734325</v>
+        <v>7.310071161872053</v>
       </c>
       <c r="D25">
-        <v>4.220669514719781</v>
+        <v>6.457313011796745</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>39.07095159852677</v>
+        <v>43.12774768529209</v>
       </c>
       <c r="G25">
-        <v>2.05099163436766</v>
+        <v>2.118470798979245</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>31.98721137623781</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.73901535503546</v>
+        <v>12.53500327367685</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>8.489974531100538</v>
       </c>
       <c r="M25">
-        <v>33.20207712640787</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>30.51930219444387</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_54/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_54/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.38274331998808</v>
+        <v>14.41155629258586</v>
       </c>
       <c r="C2">
-        <v>6.735052082866859</v>
+        <v>4.734212120649882</v>
       </c>
       <c r="D2">
-        <v>6.468976738996705</v>
+        <v>8.311726735119583</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>40.90194628530981</v>
+        <v>42.41018029824375</v>
       </c>
       <c r="G2">
-        <v>2.131444039789621</v>
+        <v>3.724044295903637</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>30.73802227819104</v>
+        <v>34.83494515647468</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.43956984213508</v>
+        <v>12.45006114069616</v>
       </c>
       <c r="L2">
-        <v>8.084260271840446</v>
+        <v>10.89282799992328</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.51429519454162</v>
+        <v>14.29492639753532</v>
       </c>
       <c r="C3">
-        <v>6.322634560872229</v>
+        <v>4.548862608271972</v>
       </c>
       <c r="D3">
-        <v>6.477022409576273</v>
+        <v>8.303148054274754</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>39.38015947157032</v>
+        <v>42.05091988384387</v>
       </c>
       <c r="G3">
-        <v>2.1404896499763</v>
+        <v>3.727189311259263</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>29.89841040281438</v>
+        <v>34.65730748989031</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.64706712094538</v>
+        <v>12.37306244056855</v>
       </c>
       <c r="L3">
-        <v>7.810794872624053</v>
+        <v>10.87242367938386</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.00091801965831</v>
+        <v>14.22793586449322</v>
       </c>
       <c r="C4">
-        <v>6.058030220764211</v>
+        <v>4.429973538784413</v>
       </c>
       <c r="D4">
-        <v>6.48202196824002</v>
+        <v>8.297682455629513</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>38.441194486984</v>
+        <v>41.8354336038399</v>
       </c>
       <c r="G4">
-        <v>2.146181799362899</v>
+        <v>3.729220532384572</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>29.38700544633684</v>
+        <v>34.55198532402104</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.13515376806786</v>
+        <v>12.32963850521564</v>
       </c>
       <c r="L4">
-        <v>7.644053538615047</v>
+        <v>10.86216072879885</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.78793483676904</v>
+        <v>14.20183014944285</v>
       </c>
       <c r="C5">
-        <v>5.947326185844523</v>
+        <v>4.380279702728996</v>
       </c>
       <c r="D5">
-        <v>6.484072875712791</v>
+        <v>8.295405010251887</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>38.05776631156457</v>
+        <v>41.74896793574553</v>
       </c>
       <c r="G5">
-        <v>2.148537906625493</v>
+        <v>3.730073550832025</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>29.17976027282039</v>
+        <v>34.51002852366478</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.920098185718523</v>
+        <v>12.31292986660309</v>
       </c>
       <c r="L5">
-        <v>7.576472782700783</v>
+        <v>10.85855070480773</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.75234736229037</v>
+        <v>14.19756827111841</v>
       </c>
       <c r="C6">
-        <v>5.928769957495769</v>
+        <v>4.371953896831874</v>
       </c>
       <c r="D6">
-        <v>6.484414206250936</v>
+        <v>8.295023802704023</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>37.9940619086119</v>
+        <v>41.73469353383176</v>
       </c>
       <c r="G6">
-        <v>2.148931391454663</v>
+        <v>3.730216723380179</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>29.14542093596423</v>
+        <v>34.50312034955974</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.883996713457655</v>
+        <v>12.31021550979405</v>
       </c>
       <c r="L6">
-        <v>7.565275543501075</v>
+        <v>10.85798588882716</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.99806066947838</v>
+        <v>14.22757892156468</v>
       </c>
       <c r="C7">
-        <v>6.056548882598106</v>
+        <v>4.429308346947451</v>
       </c>
       <c r="D7">
-        <v>6.482049574432981</v>
+        <v>8.297651944774371</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>38.4360261392383</v>
+        <v>41.83426196231946</v>
       </c>
       <c r="G7">
-        <v>2.146213424548816</v>
+        <v>3.729231934014545</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>29.38420561603727</v>
+        <v>34.55141555570083</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.13227966026711</v>
+        <v>12.32940914811589</v>
       </c>
       <c r="L7">
-        <v>7.643140529577057</v>
+        <v>10.86210972285725</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.05919126343838</v>
+        <v>14.37040296916304</v>
       </c>
       <c r="C8">
-        <v>6.595200298252678</v>
+        <v>4.671377007809244</v>
       </c>
       <c r="D8">
-        <v>6.471737658512041</v>
+        <v>8.308809762906726</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>40.37838586067501</v>
+        <v>42.28528780203904</v>
       </c>
       <c r="G8">
-        <v>2.134535413010792</v>
+        <v>3.725107962036151</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>30.44773744395651</v>
+        <v>34.77293037673358</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.17151809767328</v>
+        <v>12.42272349152347</v>
       </c>
       <c r="L8">
-        <v>7.989769392789817</v>
+        <v>10.88532408520837</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.28377963659974</v>
+        <v>14.68563950205059</v>
       </c>
       <c r="C9">
-        <v>7.562386727907199</v>
+        <v>5.104518062768327</v>
       </c>
       <c r="D9">
-        <v>6.452056999337163</v>
+        <v>8.329131592760412</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>44.1379267783813</v>
+        <v>43.20729412418424</v>
       </c>
       <c r="G9">
-        <v>2.112643352843455</v>
+        <v>3.717811506482786</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>32.56152155754636</v>
+        <v>35.23611188264815</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.01255811588149</v>
+        <v>12.63541599322527</v>
       </c>
       <c r="L9">
-        <v>8.675928356292234</v>
+        <v>10.94868993567033</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.78243086898096</v>
+        <v>14.93651619518809</v>
       </c>
       <c r="C10">
-        <v>8.220985935114133</v>
+        <v>5.396060653680233</v>
       </c>
       <c r="D10">
-        <v>6.438034043091739</v>
+        <v>8.343132043743427</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>46.85680614661346</v>
+        <v>43.90352067126772</v>
       </c>
       <c r="G10">
-        <v>2.097040741597785</v>
+        <v>3.712926978826145</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>34.12725351514328</v>
+        <v>35.5926217903194</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.25106064293784</v>
+        <v>12.80850878383533</v>
       </c>
       <c r="L10">
-        <v>9.180884168291065</v>
+        <v>11.00591659278993</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.43624877582383</v>
+        <v>15.05433704129481</v>
       </c>
       <c r="C11">
-        <v>8.510006828217517</v>
+        <v>5.522678768854877</v>
       </c>
       <c r="D11">
-        <v>6.431777326737712</v>
+        <v>8.349303545533196</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>48.0828362278977</v>
+        <v>44.22344357175569</v>
       </c>
       <c r="G11">
-        <v>2.090014071654307</v>
+        <v>3.710807037071446</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>34.84188729749497</v>
+        <v>35.75801834239349</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.79115044448065</v>
+        <v>12.89060576403404</v>
       </c>
       <c r="L11">
-        <v>9.410364249229191</v>
+        <v>11.03421434520382</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.67995997207859</v>
+        <v>15.09944108752209</v>
       </c>
       <c r="C12">
-        <v>8.618000248226561</v>
+        <v>5.569747585420084</v>
       </c>
       <c r="D12">
-        <v>6.429428466784041</v>
+        <v>8.351612474444249</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>48.54551446136578</v>
+        <v>44.34497393091723</v>
       </c>
       <c r="G12">
-        <v>2.087360379930932</v>
+        <v>3.710018850664735</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>35.11284518228978</v>
+        <v>35.82108464831722</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.99244734986715</v>
+        <v>12.92214942229642</v>
       </c>
       <c r="L12">
-        <v>9.497211516393973</v>
+        <v>11.04525040608166</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.62764236089989</v>
+        <v>15.08970612857927</v>
       </c>
       <c r="C13">
-        <v>8.59480532426705</v>
+        <v>5.559649767968184</v>
       </c>
       <c r="D13">
-        <v>6.429933378000825</v>
+        <v>8.351116449676763</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>48.44593912420819</v>
+        <v>44.31878443621442</v>
       </c>
       <c r="G13">
-        <v>2.087931633973601</v>
+        <v>3.710187953197504</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>35.05447398021896</v>
+        <v>35.80748334295795</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.94923563979997</v>
+        <v>12.91533612482782</v>
       </c>
       <c r="L13">
-        <v>9.478509867376225</v>
+        <v>11.04285943732496</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.45637585166536</v>
+        <v>15.05803825336247</v>
       </c>
       <c r="C14">
-        <v>8.518920190453244</v>
+        <v>5.526568836837587</v>
       </c>
       <c r="D14">
-        <v>6.431583657638824</v>
+        <v>8.349494063678568</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>48.12093293599108</v>
+        <v>44.23343473288094</v>
       </c>
       <c r="G14">
-        <v>2.089795626140398</v>
+        <v>3.710741900595675</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>34.86417219310744</v>
+        <v>35.76319830965705</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.80777508271768</v>
+        <v>12.89319191410638</v>
       </c>
       <c r="L14">
-        <v>9.417510326111154</v>
+        <v>11.0351159014213</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.35096990797819</v>
+        <v>15.03870299138788</v>
       </c>
       <c r="C15">
-        <v>8.472251417324255</v>
+        <v>5.506190972683481</v>
       </c>
       <c r="D15">
-        <v>6.432597252151047</v>
+        <v>8.348496656684876</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>47.92164989183667</v>
+        <v>44.18120305034958</v>
       </c>
       <c r="G15">
-        <v>2.090938210587839</v>
+        <v>3.711083106821135</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>34.74765194352006</v>
+        <v>35.73612813350434</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.72071065455466</v>
+        <v>12.87968641557739</v>
       </c>
       <c r="L15">
-        <v>9.380139258472395</v>
+        <v>11.030414309093</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.7391520182745</v>
+        <v>14.92888698488879</v>
       </c>
       <c r="C16">
-        <v>8.201890495718983</v>
+        <v>5.387663660044124</v>
       </c>
       <c r="D16">
-        <v>6.438445629088323</v>
+        <v>8.342724775415315</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>46.77645983871317</v>
+        <v>43.8826707691679</v>
       </c>
       <c r="G16">
-        <v>2.097501126324138</v>
+        <v>3.713067568258599</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>34.0805975175594</v>
+        <v>35.58187507603449</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.21530615893585</v>
+        <v>12.80320877509289</v>
       </c>
       <c r="L16">
-        <v>9.165880581884766</v>
+        <v>11.00411239563098</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.35676389154742</v>
+        <v>14.86243423495536</v>
       </c>
       <c r="C17">
-        <v>8.033368845043436</v>
+        <v>5.313401169093813</v>
       </c>
       <c r="D17">
-        <v>6.442066649399997</v>
+        <v>8.339133573728031</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>46.07110571065974</v>
+        <v>43.7002963165808</v>
       </c>
       <c r="G17">
-        <v>2.10154338083504</v>
+        <v>3.714311048473235</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>33.67197865326865</v>
+        <v>35.488050079877</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.89937424027765</v>
+        <v>12.75713269097367</v>
       </c>
       <c r="L17">
-        <v>9.034363706481615</v>
+        <v>10.98855346029734</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.13418650094324</v>
+        <v>14.82456290482007</v>
       </c>
       <c r="C18">
-        <v>7.935439140796541</v>
+        <v>5.270122755419824</v>
       </c>
       <c r="D18">
-        <v>6.444160693815139</v>
+        <v>8.337049414228284</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>45.6643859517426</v>
+        <v>43.59570585794211</v>
       </c>
       <c r="G18">
-        <v>2.103875266344136</v>
+        <v>3.71503587634586</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>33.4371733522951</v>
+        <v>35.43438912530974</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.71545602444046</v>
+        <v>12.73094854585197</v>
       </c>
       <c r="L18">
-        <v>8.958697644103179</v>
+        <v>10.97981792181985</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.05836854893236</v>
+        <v>14.81180184319535</v>
       </c>
       <c r="C19">
-        <v>7.902108064131233</v>
+        <v>5.255372959264781</v>
       </c>
       <c r="D19">
-        <v>6.4448715676921</v>
+        <v>8.336340550758464</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>45.52650502702845</v>
+        <v>43.56034835153957</v>
       </c>
       <c r="G19">
-        <v>2.104666073641087</v>
+        <v>3.715282943917603</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>33.35771090643068</v>
+        <v>35.41627363722616</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.65280245775149</v>
+        <v>12.72213840917618</v>
       </c>
       <c r="L19">
-        <v>8.933075613090971</v>
+        <v>10.97689705312808</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.39774180237827</v>
+        <v>14.86947227820377</v>
       </c>
       <c r="C20">
-        <v>8.051411346795815</v>
+        <v>5.321365088204782</v>
       </c>
       <c r="D20">
-        <v>6.441679993927742</v>
+        <v>8.33951778566764</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>46.14629780783696</v>
+        <v>43.71967923394941</v>
       </c>
       <c r="G20">
-        <v>2.101112384223178</v>
+        <v>3.714177683811651</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>33.71545401807236</v>
+        <v>35.49800657987118</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.93323279113509</v>
+        <v>12.76200489342281</v>
       </c>
       <c r="L20">
-        <v>9.048366262523915</v>
+        <v>10.99018767166656</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.50678495777115</v>
+        <v>15.06732698685929</v>
       </c>
       <c r="C21">
-        <v>8.541248313391931</v>
+        <v>5.536309463881336</v>
       </c>
       <c r="D21">
-        <v>6.431098351640495</v>
+        <v>8.349971357637562</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>48.21643831631843</v>
+        <v>44.25849425648781</v>
       </c>
       <c r="G21">
-        <v>2.089247958292813</v>
+        <v>3.710578797542221</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>34.92005899364658</v>
+        <v>35.77619434479964</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.84941187266013</v>
+        <v>12.89968407040655</v>
       </c>
       <c r="L21">
-        <v>9.435428861642569</v>
+        <v>11.03738171750314</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.20909659685779</v>
+        <v>15.19945937713807</v>
       </c>
       <c r="C22">
-        <v>8.852958454412201</v>
+        <v>5.671660929398348</v>
       </c>
       <c r="D22">
-        <v>6.424303306844028</v>
+        <v>8.356639806391259</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>49.56014453269736</v>
+        <v>44.61283389444155</v>
       </c>
       <c r="G22">
-        <v>2.081533909929064</v>
+        <v>3.708311716771646</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>35.70935511952667</v>
+        <v>35.96052326715314</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.42946834337605</v>
+        <v>12.99230604952208</v>
       </c>
       <c r="L22">
-        <v>9.688095539764593</v>
+        <v>11.07008999559013</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.83626889982353</v>
+        <v>15.128694110039</v>
       </c>
       <c r="C23">
-        <v>8.687338365067074</v>
+        <v>5.599894776674679</v>
       </c>
       <c r="D23">
-        <v>6.427917861742547</v>
+        <v>8.35309559875423</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>48.84382385350191</v>
+        <v>44.42354154029059</v>
       </c>
       <c r="G23">
-        <v>2.085648479282264</v>
+        <v>3.709513951212134</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>35.28789891067511</v>
+        <v>35.86192279214939</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.1215483362429</v>
+        <v>12.94263956982259</v>
       </c>
       <c r="L23">
-        <v>9.553272825512348</v>
+        <v>11.05246428838893</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.37922422557027</v>
+        <v>14.86628933754024</v>
       </c>
       <c r="C24">
-        <v>8.043257589770123</v>
+        <v>5.317766418027579</v>
       </c>
       <c r="D24">
-        <v>6.441854762853823</v>
+        <v>8.339344144295778</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>46.11230720160741</v>
+        <v>43.71091540407509</v>
       </c>
       <c r="G24">
-        <v>2.101307212834441</v>
+        <v>3.714237947022655</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>33.69579844658276</v>
+        <v>35.49350437094611</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.91793246634784</v>
+        <v>12.75980121669443</v>
       </c>
       <c r="L24">
-        <v>9.042035877414518</v>
+        <v>10.98944819174697</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.70627715085957</v>
+        <v>14.59681175599301</v>
       </c>
       <c r="C25">
-        <v>7.310071161872053</v>
+        <v>4.991944160585953</v>
       </c>
       <c r="D25">
-        <v>6.457313011796745</v>
+        <v>8.323798760493466</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>43.12774768529209</v>
+        <v>42.95425947538171</v>
       </c>
       <c r="G25">
-        <v>2.118470798979245</v>
+        <v>3.719701350595489</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>31.98721137623781</v>
+        <v>35.10786042630814</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.53500327367685</v>
+        <v>12.57482352951874</v>
       </c>
       <c r="L25">
-        <v>8.489974531100538</v>
+        <v>10.92965696390607</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_54/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_54/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.41155629258586</v>
+        <v>13.38274331998811</v>
       </c>
       <c r="C2">
-        <v>4.734212120649882</v>
+        <v>6.735052082866834</v>
       </c>
       <c r="D2">
-        <v>8.311726735119583</v>
+        <v>6.468976738996695</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>42.41018029824375</v>
+        <v>40.90194628530989</v>
       </c>
       <c r="G2">
-        <v>3.724044295903637</v>
+        <v>2.131444039789624</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>34.83494515647468</v>
+        <v>30.73802227819118</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.45006114069616</v>
+        <v>11.4395698421351</v>
       </c>
       <c r="L2">
-        <v>10.89282799992328</v>
+        <v>8.084260271840362</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.29492639753532</v>
+        <v>12.51429519454162</v>
       </c>
       <c r="C3">
-        <v>4.548862608271972</v>
+        <v>6.322634560872142</v>
       </c>
       <c r="D3">
-        <v>8.303148054274754</v>
+        <v>6.477022409576323</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>42.05091988384387</v>
+        <v>39.38015947157032</v>
       </c>
       <c r="G3">
-        <v>3.727189311259263</v>
+        <v>2.140489649975902</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>34.65730748989031</v>
+        <v>29.8984104028144</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.37306244056855</v>
+        <v>10.64706712094531</v>
       </c>
       <c r="L3">
-        <v>10.87242367938386</v>
+        <v>7.810794872624063</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.22793586449322</v>
+        <v>12.0009180196583</v>
       </c>
       <c r="C4">
-        <v>4.429973538784413</v>
+        <v>6.058030220764262</v>
       </c>
       <c r="D4">
-        <v>8.297682455629513</v>
+        <v>6.482021968239976</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>41.8354336038399</v>
+        <v>38.44119448698414</v>
       </c>
       <c r="G4">
-        <v>3.729220532384572</v>
+        <v>2.1461817993629</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>34.55198532402104</v>
+        <v>29.387005446337</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.32963850521564</v>
+        <v>10.13515376806787</v>
       </c>
       <c r="L4">
-        <v>10.86216072879885</v>
+        <v>7.644053538615014</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.20183014944285</v>
+        <v>11.78793483676903</v>
       </c>
       <c r="C5">
-        <v>4.380279702728996</v>
+        <v>5.947326185844675</v>
       </c>
       <c r="D5">
-        <v>8.295405010251887</v>
+        <v>6.484072875712919</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>41.74896793574553</v>
+        <v>38.05776631156449</v>
       </c>
       <c r="G5">
-        <v>3.730073550832025</v>
+        <v>2.148537906625497</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>34.51002852366478</v>
+        <v>29.17976027282037</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.31292986660309</v>
+        <v>9.920098185718526</v>
       </c>
       <c r="L5">
-        <v>10.85855070480773</v>
+        <v>7.576472782700809</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.19756827111841</v>
+        <v>11.75234736229037</v>
       </c>
       <c r="C6">
-        <v>4.371953896831874</v>
+        <v>5.928769957495958</v>
       </c>
       <c r="D6">
-        <v>8.295023802704023</v>
+        <v>6.484414206251063</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>41.73469353383176</v>
+        <v>37.9940619086118</v>
       </c>
       <c r="G6">
-        <v>3.730216723380179</v>
+        <v>2.14893139145493</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>34.50312034955974</v>
+        <v>29.14542093596424</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.31021550979405</v>
+        <v>9.883996713457725</v>
       </c>
       <c r="L6">
-        <v>10.85798588882716</v>
+        <v>7.565275543501046</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.22757892156468</v>
+        <v>11.99806066947838</v>
       </c>
       <c r="C7">
-        <v>4.429308346947451</v>
+        <v>6.056548882598384</v>
       </c>
       <c r="D7">
-        <v>8.297651944774371</v>
+        <v>6.482049574432747</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>41.83426196231946</v>
+        <v>38.43602613923846</v>
       </c>
       <c r="G7">
-        <v>3.729231934014545</v>
+        <v>2.146213424549214</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>34.55141555570083</v>
+        <v>29.38420561603733</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.32940914811589</v>
+        <v>10.13227966026712</v>
       </c>
       <c r="L7">
-        <v>10.86210972285725</v>
+        <v>7.643140529577074</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.37040296916304</v>
+        <v>13.05919126343846</v>
       </c>
       <c r="C8">
-        <v>4.671377007809244</v>
+        <v>6.595200298252403</v>
       </c>
       <c r="D8">
-        <v>8.308809762906726</v>
+        <v>6.471737658512204</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>42.28528780203904</v>
+        <v>40.37838586067522</v>
       </c>
       <c r="G8">
-        <v>3.725107962036151</v>
+        <v>2.134535413010787</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>34.77293037673358</v>
+        <v>30.44773744395658</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.42272349152347</v>
+        <v>11.17151809767327</v>
       </c>
       <c r="L8">
-        <v>10.88532408520837</v>
+        <v>7.989769392789825</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.68563950205059</v>
+        <v>15.28377963659967</v>
       </c>
       <c r="C9">
-        <v>5.104518062768327</v>
+        <v>7.56238672790704</v>
       </c>
       <c r="D9">
-        <v>8.329131592760412</v>
+        <v>6.452056999337322</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>43.20729412418424</v>
+        <v>44.13792677838138</v>
       </c>
       <c r="G9">
-        <v>3.717811506482786</v>
+        <v>2.11264335284346</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>35.23611188264815</v>
+        <v>32.56152155754645</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.63541599322527</v>
+        <v>13.01255811588138</v>
       </c>
       <c r="L9">
-        <v>10.94868993567033</v>
+        <v>8.675928356292218</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.93651619518809</v>
+        <v>16.78243086898091</v>
       </c>
       <c r="C10">
-        <v>5.396060653680233</v>
+        <v>8.220985935114024</v>
       </c>
       <c r="D10">
-        <v>8.343132043743427</v>
+        <v>6.43803404309186</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>43.90352067126772</v>
+        <v>46.8568061466136</v>
       </c>
       <c r="G10">
-        <v>3.712926978826145</v>
+        <v>2.097040741597389</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>35.5926217903194</v>
+        <v>34.12725351514344</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.80850878383533</v>
+        <v>14.25106064293775</v>
       </c>
       <c r="L10">
-        <v>11.00591659278993</v>
+        <v>9.180884168291049</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.05433704129481</v>
+        <v>17.43624877582388</v>
       </c>
       <c r="C11">
-        <v>5.522678768854877</v>
+        <v>8.510006828217415</v>
       </c>
       <c r="D11">
-        <v>8.349303545533196</v>
+        <v>6.431777326738053</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>44.22344357175569</v>
+        <v>48.08283622789793</v>
       </c>
       <c r="G11">
-        <v>3.710807037071446</v>
+        <v>2.090014071654307</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>35.75801834239349</v>
+        <v>34.84188729749512</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.89060576403404</v>
+        <v>14.79115044448065</v>
       </c>
       <c r="L11">
-        <v>11.03421434520382</v>
+        <v>9.410364249229222</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.09944108752209</v>
+        <v>17.67995997207863</v>
       </c>
       <c r="C12">
-        <v>5.569747585420084</v>
+        <v>8.618000248226423</v>
       </c>
       <c r="D12">
-        <v>8.351612474444249</v>
+        <v>6.429428466784041</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>44.34497393091723</v>
+        <v>48.54551446136578</v>
       </c>
       <c r="G12">
-        <v>3.710018850664735</v>
+        <v>2.087360379930932</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>35.82108464831722</v>
+        <v>35.11284518228977</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.92214942229642</v>
+        <v>14.9924473498672</v>
       </c>
       <c r="L12">
-        <v>11.04525040608166</v>
+        <v>9.497211516393984</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.08970612857927</v>
+        <v>17.62764236089981</v>
       </c>
       <c r="C13">
-        <v>5.559649767968184</v>
+        <v>8.594805324267012</v>
       </c>
       <c r="D13">
-        <v>8.351116449676763</v>
+        <v>6.429933378000976</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>44.31878443621442</v>
+        <v>48.44593912420822</v>
       </c>
       <c r="G13">
-        <v>3.710187953197504</v>
+        <v>2.087931633973335</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>35.80748334295795</v>
+        <v>35.05447398021905</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.91533612482782</v>
+        <v>14.94923563979988</v>
       </c>
       <c r="L13">
-        <v>11.04285943732496</v>
+        <v>9.478509867376204</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.05803825336247</v>
+        <v>17.4563758516653</v>
       </c>
       <c r="C14">
-        <v>5.526568836837587</v>
+        <v>8.518920190453532</v>
       </c>
       <c r="D14">
-        <v>8.349494063678568</v>
+        <v>6.431583657638816</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>44.23343473288094</v>
+        <v>48.12093293599116</v>
       </c>
       <c r="G14">
-        <v>3.710741900595675</v>
+        <v>2.089795626140526</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>35.76319830965705</v>
+        <v>34.86417219310751</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.89319191410638</v>
+        <v>14.80777508271769</v>
       </c>
       <c r="L14">
-        <v>11.0351159014213</v>
+        <v>9.417510326111129</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.03870299138788</v>
+        <v>17.35096990797818</v>
       </c>
       <c r="C15">
-        <v>5.506190972683481</v>
+        <v>8.472251417324266</v>
       </c>
       <c r="D15">
-        <v>8.348496656684876</v>
+        <v>6.432597252151171</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>44.18120305034958</v>
+        <v>47.92164989183662</v>
       </c>
       <c r="G15">
-        <v>3.711083106821135</v>
+        <v>2.09093821058757</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>35.73612813350434</v>
+        <v>34.74765194352003</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.87968641557739</v>
+        <v>14.72071065455466</v>
       </c>
       <c r="L15">
-        <v>11.030414309093</v>
+        <v>9.380139258472379</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.92888698488879</v>
+        <v>16.73915201827451</v>
       </c>
       <c r="C16">
-        <v>5.387663660044124</v>
+        <v>8.201890495718921</v>
       </c>
       <c r="D16">
-        <v>8.342724775415315</v>
+        <v>6.438445629088394</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>43.8826707691679</v>
+        <v>46.77645983871327</v>
       </c>
       <c r="G16">
-        <v>3.713067568258599</v>
+        <v>2.097501126324269</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>35.58187507603449</v>
+        <v>34.08059751755948</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.80320877509289</v>
+        <v>14.21530615893585</v>
       </c>
       <c r="L16">
-        <v>11.00411239563098</v>
+        <v>9.165880581884796</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.86243423495536</v>
+        <v>16.35676389154743</v>
       </c>
       <c r="C17">
-        <v>5.313401169093813</v>
+        <v>8.033368845043523</v>
       </c>
       <c r="D17">
-        <v>8.339133573728031</v>
+        <v>6.442066649400018</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>43.7002963165808</v>
+        <v>46.07110571065984</v>
       </c>
       <c r="G17">
-        <v>3.714311048473235</v>
+        <v>2.101543380835045</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>35.488050079877</v>
+        <v>33.67197865326874</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.75713269097367</v>
+        <v>13.89937424027768</v>
       </c>
       <c r="L17">
-        <v>10.98855346029734</v>
+        <v>9.034363706481599</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.82456290482007</v>
+        <v>16.1341865009432</v>
       </c>
       <c r="C18">
-        <v>5.270122755419824</v>
+        <v>7.935439140796528</v>
       </c>
       <c r="D18">
-        <v>8.337049414228284</v>
+        <v>6.444160693815134</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>43.59570585794211</v>
+        <v>45.66438595174274</v>
       </c>
       <c r="G18">
-        <v>3.71503587634586</v>
+        <v>2.103875266344393</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>35.43438912530974</v>
+        <v>33.4371733522952</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.73094854585197</v>
+        <v>13.7154560244404</v>
       </c>
       <c r="L18">
-        <v>10.97981792181985</v>
+        <v>8.958697644103147</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.81180184319535</v>
+        <v>16.05836854893239</v>
       </c>
       <c r="C19">
-        <v>5.255372959264781</v>
+        <v>7.902108064131492</v>
       </c>
       <c r="D19">
-        <v>8.336340550758464</v>
+        <v>6.444871567692097</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>43.56034835153957</v>
+        <v>45.52650502702844</v>
       </c>
       <c r="G19">
-        <v>3.715282943917603</v>
+        <v>2.104666073640964</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>35.41627363722616</v>
+        <v>33.35771090643066</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.72213840917618</v>
+        <v>13.65280245775157</v>
       </c>
       <c r="L19">
-        <v>10.97689705312808</v>
+        <v>8.933075613091003</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.86947227820377</v>
+        <v>16.39774180237825</v>
       </c>
       <c r="C20">
-        <v>5.321365088204782</v>
+        <v>8.051411346795701</v>
       </c>
       <c r="D20">
-        <v>8.33951778566764</v>
+        <v>6.441679993927978</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>43.71967923394941</v>
+        <v>46.14629780783697</v>
       </c>
       <c r="G20">
-        <v>3.714177683811651</v>
+        <v>2.10111238422305</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>35.49800657987118</v>
+        <v>33.71545401807243</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.76200489342281</v>
+        <v>13.93323279113501</v>
       </c>
       <c r="L20">
-        <v>10.99018767166656</v>
+        <v>9.048366262523908</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.06732698685929</v>
+        <v>17.50678495777116</v>
       </c>
       <c r="C21">
-        <v>5.536309463881336</v>
+        <v>8.541248313391756</v>
       </c>
       <c r="D21">
-        <v>8.349971357637562</v>
+        <v>6.431098351640734</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>44.25849425648781</v>
+        <v>48.2164383163184</v>
       </c>
       <c r="G21">
-        <v>3.710578797542221</v>
+        <v>2.089247958292811</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>35.77619434479964</v>
+        <v>34.92005899364655</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.89968407040655</v>
+        <v>14.8494118726601</v>
       </c>
       <c r="L21">
-        <v>11.03738171750314</v>
+        <v>9.43542886164256</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.19945937713807</v>
+        <v>18.20909659685786</v>
       </c>
       <c r="C22">
-        <v>5.671660929398348</v>
+        <v>8.852958454412013</v>
       </c>
       <c r="D22">
-        <v>8.356639806391259</v>
+        <v>6.424303306844119</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>44.61283389444155</v>
+        <v>49.56014453269755</v>
       </c>
       <c r="G22">
-        <v>3.708311716771646</v>
+        <v>2.08153390992893</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>35.96052326715314</v>
+        <v>35.70935511952677</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.99230604952208</v>
+        <v>15.42946834337608</v>
       </c>
       <c r="L22">
-        <v>11.07008999559013</v>
+        <v>9.688095539764612</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.128694110039</v>
+        <v>17.8362688998236</v>
       </c>
       <c r="C23">
-        <v>5.599894776674679</v>
+        <v>8.687338365067298</v>
       </c>
       <c r="D23">
-        <v>8.35309559875423</v>
+        <v>6.427917861742202</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>44.42354154029059</v>
+        <v>48.84382385350182</v>
       </c>
       <c r="G23">
-        <v>3.709513951212134</v>
+        <v>2.085648479282521</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>35.86192279214939</v>
+        <v>35.28789891067504</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.94263956982259</v>
+        <v>15.12154833624304</v>
       </c>
       <c r="L23">
-        <v>11.05246428838893</v>
+        <v>9.553272825512334</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.86628933754024</v>
+        <v>16.3792242255702</v>
       </c>
       <c r="C24">
-        <v>5.317766418027579</v>
+        <v>8.043257589770308</v>
       </c>
       <c r="D24">
-        <v>8.339344144295778</v>
+        <v>6.441854762853827</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>43.71091540407509</v>
+        <v>46.11230720160749</v>
       </c>
       <c r="G24">
-        <v>3.714237947022655</v>
+        <v>2.101307212834308</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>35.49350437094611</v>
+        <v>33.69579844658283</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.75980121669443</v>
+        <v>13.91793246634778</v>
       </c>
       <c r="L24">
-        <v>10.98944819174697</v>
+        <v>9.042035877414566</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.59681175599301</v>
+        <v>14.70627715085962</v>
       </c>
       <c r="C25">
-        <v>4.991944160585953</v>
+        <v>7.310071161872226</v>
       </c>
       <c r="D25">
-        <v>8.323798760493466</v>
+        <v>6.457313011796728</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>42.95425947538171</v>
+        <v>43.12774768529219</v>
       </c>
       <c r="G25">
-        <v>3.719701350595489</v>
+        <v>2.118470798979112</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>35.10786042630814</v>
+        <v>31.98721137623791</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.57482352951874</v>
+        <v>12.53500327367697</v>
       </c>
       <c r="L25">
-        <v>10.92965696390607</v>
+        <v>8.48997453110055</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_54/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_54/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.38274331998811</v>
+        <v>10.76826600174866</v>
       </c>
       <c r="C2">
-        <v>6.735052082866834</v>
+        <v>7.893213131431942</v>
       </c>
       <c r="D2">
-        <v>6.468976738996695</v>
+        <v>5.345319965833982</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>40.90194628530989</v>
+        <v>16.15599691865051</v>
       </c>
       <c r="G2">
-        <v>2.131444039789624</v>
+        <v>19.25578117578314</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.824228223469136</v>
       </c>
       <c r="I2">
-        <v>30.73802227819118</v>
+        <v>2.62506958617417</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.339843267618571</v>
       </c>
       <c r="K2">
-        <v>11.4395698421351</v>
+        <v>13.22176195143003</v>
       </c>
       <c r="L2">
-        <v>8.084260271840362</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.44503305903925</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>28.19736470620665</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>13.17976504715775</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.51429519454162</v>
+        <v>10.1951796112924</v>
       </c>
       <c r="C3">
-        <v>6.322634560872142</v>
+        <v>7.680434077041015</v>
       </c>
       <c r="D3">
-        <v>6.477022409576323</v>
+        <v>5.11327046020836</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>39.38015947157032</v>
+        <v>15.90783075382993</v>
       </c>
       <c r="G3">
-        <v>2.140489649975902</v>
+        <v>19.00435955028568</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.586305170064052</v>
       </c>
       <c r="I3">
-        <v>29.8984104028144</v>
+        <v>2.500041365552079</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.379717750203298</v>
       </c>
       <c r="K3">
-        <v>10.64706712094531</v>
+        <v>13.31022960573996</v>
       </c>
       <c r="L3">
-        <v>7.810794872624063</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.03664507270139</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>26.39695638897698</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>13.18122229061025</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.0009180196583</v>
+        <v>9.823554864694842</v>
       </c>
       <c r="C4">
-        <v>6.058030220764262</v>
+        <v>7.547406370389838</v>
       </c>
       <c r="D4">
-        <v>6.482021968239976</v>
+        <v>4.964895838469795</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>38.44119448698414</v>
+        <v>15.76124121016558</v>
       </c>
       <c r="G4">
-        <v>2.1461817993629</v>
+        <v>18.85855532218883</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.688377975905357</v>
       </c>
       <c r="I4">
-        <v>29.387005446337</v>
+        <v>2.524524043764875</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>8.406645885422943</v>
       </c>
       <c r="K4">
-        <v>10.13515376806787</v>
+        <v>13.36778720924734</v>
       </c>
       <c r="L4">
-        <v>7.644053538615014</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.775833360312006</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>25.2305632094355</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>13.1873661361925</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.78793483676903</v>
+        <v>9.664900236362502</v>
       </c>
       <c r="C5">
-        <v>5.947326185844675</v>
+        <v>7.498001502339742</v>
       </c>
       <c r="D5">
-        <v>6.484072875712919</v>
+        <v>4.904548330610766</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>38.05776631156449</v>
+        <v>15.6960183143431</v>
       </c>
       <c r="G5">
-        <v>2.148537906625497</v>
+        <v>18.78907625807138</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.752432439093674</v>
       </c>
       <c r="I5">
-        <v>29.17976027282037</v>
+        <v>2.562358464919319</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>8.416371462102088</v>
       </c>
       <c r="K5">
-        <v>9.920098185718526</v>
+        <v>13.38709390507123</v>
       </c>
       <c r="L5">
-        <v>7.576472782700809</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.66848655370223</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>24.73982976555368</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>13.18637088733132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.75234736229037</v>
+        <v>9.635422370653556</v>
       </c>
       <c r="C6">
-        <v>5.928769957495958</v>
+        <v>7.496382085579413</v>
       </c>
       <c r="D6">
-        <v>6.484414206251063</v>
+        <v>4.896350670156135</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>37.9940619086118</v>
+        <v>15.67675167246569</v>
       </c>
       <c r="G6">
-        <v>2.14893139145493</v>
+        <v>18.76274958060942</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.763218781631713</v>
       </c>
       <c r="I6">
-        <v>29.14542093596424</v>
+        <v>2.572791029133389</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8.415764465163829</v>
       </c>
       <c r="K6">
-        <v>9.883996713457725</v>
+        <v>13.38431671750909</v>
       </c>
       <c r="L6">
-        <v>7.565275543501046</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.652206985512642</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>24.65729814065334</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>13.18044420397883</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.99806066947838</v>
+        <v>9.813826441641501</v>
       </c>
       <c r="C7">
-        <v>6.056548882598384</v>
+        <v>7.564698411918267</v>
       </c>
       <c r="D7">
-        <v>6.482049574432747</v>
+        <v>4.96923690153704</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>38.43602613923846</v>
+        <v>15.73719763118613</v>
       </c>
       <c r="G7">
-        <v>2.146213424549214</v>
+        <v>18.81705041146182</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.689450775509222</v>
       </c>
       <c r="I7">
-        <v>29.38420561603733</v>
+        <v>2.535860485970209</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.400618376734977</v>
       </c>
       <c r="K7">
-        <v>10.13227966026712</v>
+        <v>13.3515764239705</v>
       </c>
       <c r="L7">
-        <v>7.643140529577074</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.778978664937158</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>25.22368508272114</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>13.17143132478284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.05919126343846</v>
+        <v>10.56538242674822</v>
       </c>
       <c r="C8">
-        <v>6.595200298252403</v>
+        <v>7.843650843943431</v>
       </c>
       <c r="D8">
-        <v>6.471737658512204</v>
+        <v>5.27307913648742</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>40.37838586067522</v>
+        <v>16.0392663214907</v>
       </c>
       <c r="G8">
-        <v>2.134535413010787</v>
+        <v>19.11462845860431</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.74282875459908</v>
       </c>
       <c r="I8">
-        <v>30.44773744395658</v>
+        <v>2.585521594236084</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.344973748920161</v>
       </c>
       <c r="K8">
-        <v>11.17151809767327</v>
+        <v>13.22982610237827</v>
       </c>
       <c r="L8">
-        <v>7.989769392789825</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.31226026223307</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>27.5888343201902</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>13.15823569727419</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.28377963659967</v>
+        <v>11.89240447822602</v>
       </c>
       <c r="C9">
-        <v>7.56238672790704</v>
+        <v>8.339766741802409</v>
       </c>
       <c r="D9">
-        <v>6.452056999337322</v>
+        <v>5.81203544210317</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>44.13792677838138</v>
+        <v>16.71630669326743</v>
       </c>
       <c r="G9">
-        <v>2.11264335284346</v>
+        <v>19.83755155172448</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.313590696013511</v>
       </c>
       <c r="I9">
-        <v>32.56152155754645</v>
+        <v>2.88327561186303</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>8.266950922242815</v>
       </c>
       <c r="K9">
-        <v>13.01255811588138</v>
+        <v>13.04739649669925</v>
       </c>
       <c r="L9">
-        <v>8.675928356292218</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>11.26710745691746</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>31.74497729272827</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>13.2042670262079</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.78243086898091</v>
+        <v>12.87037839408208</v>
       </c>
       <c r="C10">
-        <v>8.220985935114024</v>
+        <v>8.745373918211428</v>
       </c>
       <c r="D10">
-        <v>6.43803404309186</v>
+        <v>6.202516853673801</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>46.8568061466136</v>
+        <v>17.12009180141474</v>
       </c>
       <c r="G10">
-        <v>2.097040741597389</v>
+        <v>20.20124323392401</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.656468677422664</v>
       </c>
       <c r="I10">
-        <v>34.12725351514344</v>
+        <v>3.08935615305015</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>8.189672969606889</v>
       </c>
       <c r="K10">
-        <v>14.25106064293775</v>
+        <v>12.8527885760783</v>
       </c>
       <c r="L10">
-        <v>9.180884168291049</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>11.99799964846295</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>33.62274238452716</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>13.18149974064556</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.43624877582388</v>
+        <v>14.18818309517678</v>
       </c>
       <c r="C11">
-        <v>8.510006828217415</v>
+        <v>9.373243168934531</v>
       </c>
       <c r="D11">
-        <v>6.431777326738053</v>
+        <v>6.580270498611802</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>48.08283622789793</v>
+        <v>16.34412230697518</v>
       </c>
       <c r="G11">
-        <v>2.090014071654307</v>
+        <v>18.67681450937165</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.112450182563341</v>
       </c>
       <c r="I11">
-        <v>34.84188729749512</v>
+        <v>3.150494580011474</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7.886586849912475</v>
       </c>
       <c r="K11">
-        <v>14.79115044448065</v>
+        <v>12.15024191608147</v>
       </c>
       <c r="L11">
-        <v>9.410364249229222</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>13.03501112568878</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>26.93249438752258</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>12.47965872466945</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.67995997207863</v>
+        <v>15.11695351657402</v>
       </c>
       <c r="C12">
-        <v>8.618000248226423</v>
+        <v>9.819242697647338</v>
       </c>
       <c r="D12">
-        <v>6.429428466784041</v>
+        <v>6.813887961948812</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>48.54551446136578</v>
+        <v>15.62558611021962</v>
       </c>
       <c r="G12">
-        <v>2.087360379930932</v>
+        <v>17.36160164056989</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.193152286800914</v>
       </c>
       <c r="I12">
-        <v>35.11284518228977</v>
+        <v>3.164015013725952</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.65617104785276</v>
       </c>
       <c r="K12">
-        <v>14.9924473498672</v>
+        <v>11.64704154644285</v>
       </c>
       <c r="L12">
-        <v>9.497211516393984</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>13.76829233436315</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>20.94338962809834</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>11.91543932801157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.62764236089981</v>
+        <v>15.81821379946482</v>
       </c>
       <c r="C13">
-        <v>8.594805324267012</v>
+        <v>10.1782014601398</v>
       </c>
       <c r="D13">
-        <v>6.429933378000976</v>
+        <v>6.962293624679368</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>48.44593912420822</v>
+        <v>14.86295244894051</v>
       </c>
       <c r="G13">
-        <v>2.087931633973335</v>
+        <v>16.05431178319762</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.453577621427909</v>
       </c>
       <c r="I13">
-        <v>35.05447398021905</v>
+        <v>3.145727343554747</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.458616925066021</v>
       </c>
       <c r="K13">
-        <v>14.94923563979988</v>
+        <v>11.24588904899871</v>
       </c>
       <c r="L13">
-        <v>9.478509867376204</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>14.33042682721235</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>14.96600187868783</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>11.39864040786248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.4563758516653</v>
+        <v>16.21317291859237</v>
       </c>
       <c r="C14">
-        <v>8.518920190453532</v>
+        <v>10.39964894482031</v>
       </c>
       <c r="D14">
-        <v>6.431583657638816</v>
+        <v>7.030413669586251</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>48.12093293599116</v>
+        <v>14.3003773059997</v>
       </c>
       <c r="G14">
-        <v>2.089795626140526</v>
+        <v>15.13417371765892</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.481691231529273</v>
       </c>
       <c r="I14">
-        <v>34.86417219310751</v>
+        <v>3.1204391189242</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.335111735599299</v>
       </c>
       <c r="K14">
-        <v>14.80777508271769</v>
+        <v>11.01599003516266</v>
       </c>
       <c r="L14">
-        <v>9.417510326111129</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>14.65346313802069</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>10.77861666323162</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>11.05824067051331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.35096990797818</v>
+        <v>16.25944271850162</v>
       </c>
       <c r="C15">
-        <v>8.472251417324266</v>
+        <v>10.44111562494437</v>
       </c>
       <c r="D15">
-        <v>6.432597252151171</v>
+        <v>7.030716318035918</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>47.92164989183662</v>
+        <v>14.14722980274362</v>
       </c>
       <c r="G15">
-        <v>2.09093821058757</v>
+        <v>14.90078696446106</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.722927432217249</v>
       </c>
       <c r="I15">
-        <v>34.74765194352003</v>
+        <v>3.107718828662117</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.3104783065365</v>
       </c>
       <c r="K15">
-        <v>14.72071065455466</v>
+        <v>10.97554048568669</v>
       </c>
       <c r="L15">
-        <v>9.380139258472379</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>14.69682986816356</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>9.75637574362503</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>10.98138946717157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.73915201827451</v>
+        <v>15.76363483664531</v>
       </c>
       <c r="C16">
-        <v>8.201890495718921</v>
+        <v>10.21898981572358</v>
       </c>
       <c r="D16">
-        <v>6.438445629088394</v>
+        <v>6.850409308472131</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>46.77645983871327</v>
+        <v>14.09012726938994</v>
       </c>
       <c r="G16">
-        <v>2.097501126324269</v>
+        <v>14.95776688973586</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.509481730702639</v>
       </c>
       <c r="I16">
-        <v>34.08059751755948</v>
+        <v>3.026474379064929</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.380710742784742</v>
       </c>
       <c r="K16">
-        <v>14.21530615893585</v>
+        <v>11.13749117401331</v>
       </c>
       <c r="L16">
-        <v>9.165880581884796</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>14.31039240705374</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>9.703881968442733</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>11.08700238768358</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.35676389154743</v>
+        <v>15.15337690951855</v>
       </c>
       <c r="C17">
-        <v>8.033368845043523</v>
+        <v>9.924251412481745</v>
       </c>
       <c r="D17">
-        <v>6.442066649400018</v>
+        <v>6.671980367442671</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>46.07110571065984</v>
+        <v>14.35223227125944</v>
       </c>
       <c r="G17">
-        <v>2.101543380835045</v>
+        <v>15.49417429244918</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.754224906494266</v>
       </c>
       <c r="I17">
-        <v>33.67197865326874</v>
+        <v>2.976987191712464</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.499637628570858</v>
       </c>
       <c r="K17">
-        <v>13.89937424027768</v>
+        <v>11.37846417380245</v>
       </c>
       <c r="L17">
-        <v>9.034363706481599</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>13.82939202757174</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>11.95888211227911</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>11.34713175651521</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.1341865009432</v>
+        <v>14.38671374002388</v>
       </c>
       <c r="C18">
-        <v>7.935439140796528</v>
+        <v>9.524939573275583</v>
       </c>
       <c r="D18">
-        <v>6.444160693815134</v>
+        <v>6.472865980300313</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>45.66438595174274</v>
+        <v>14.93172181400784</v>
       </c>
       <c r="G18">
-        <v>2.103875266344393</v>
+        <v>16.53485048039126</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.447338845719321</v>
       </c>
       <c r="I18">
-        <v>33.4371733522952</v>
+        <v>2.949745727972748</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.679309006834758</v>
       </c>
       <c r="K18">
-        <v>13.7154560244404</v>
+        <v>11.74139651601821</v>
       </c>
       <c r="L18">
-        <v>8.958697644103147</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.21570336973995</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>16.6412778554186</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>11.78418324180874</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.05836854893239</v>
+        <v>13.54993311344649</v>
       </c>
       <c r="C19">
-        <v>7.902108064131492</v>
+        <v>9.129296523017681</v>
       </c>
       <c r="D19">
-        <v>6.444871567692097</v>
+        <v>6.283282312352377</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>45.52650502702844</v>
+        <v>15.68215254505361</v>
       </c>
       <c r="G19">
-        <v>2.104666073640964</v>
+        <v>17.84884811605498</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.109038207397604</v>
       </c>
       <c r="I19">
-        <v>33.35771090643066</v>
+        <v>2.95697939031232</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.888206709895837</v>
       </c>
       <c r="K19">
-        <v>13.65280245775157</v>
+        <v>12.18033603092793</v>
       </c>
       <c r="L19">
-        <v>8.933075613091003</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>12.56233591063441</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>22.95746513601226</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>12.31511033147207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.39774180237825</v>
+        <v>12.60682936964647</v>
       </c>
       <c r="C20">
-        <v>8.051411346795701</v>
+        <v>8.694602514892779</v>
       </c>
       <c r="D20">
-        <v>6.441679993927978</v>
+        <v>6.117086005780579</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>46.14629780783697</v>
+        <v>16.94146198757548</v>
       </c>
       <c r="G20">
-        <v>2.10111238422305</v>
+        <v>19.97752570983534</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.563359167638926</v>
       </c>
       <c r="I20">
-        <v>33.71545401807243</v>
+        <v>3.045379933372824</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>8.188941205893139</v>
       </c>
       <c r="K20">
-        <v>13.93323279113501</v>
+        <v>12.84900268925951</v>
       </c>
       <c r="L20">
-        <v>9.048366262523908</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>11.82673875992149</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>33.10025156337251</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>13.13395521837635</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.50678495777116</v>
+        <v>13.16619114346678</v>
       </c>
       <c r="C21">
-        <v>8.541248313391756</v>
+        <v>8.918058258208772</v>
       </c>
       <c r="D21">
-        <v>6.431098351640734</v>
+        <v>6.366994386609344</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>48.2164383163184</v>
+        <v>17.44174904969877</v>
       </c>
       <c r="G21">
-        <v>2.089247958292811</v>
+        <v>20.59364607989763</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.911464928437085</v>
       </c>
       <c r="I21">
-        <v>34.92005899364655</v>
+        <v>3.206201297945071</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>8.185272084349164</v>
       </c>
       <c r="K21">
-        <v>14.8494118726601</v>
+        <v>12.82610418703451</v>
       </c>
       <c r="L21">
-        <v>9.43542886164256</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>12.23994319098312</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>35.82929194082292</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>13.25854643574151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.20909659685786</v>
+        <v>13.57496371604647</v>
       </c>
       <c r="C22">
-        <v>8.852958454412013</v>
+        <v>9.064441335733035</v>
       </c>
       <c r="D22">
-        <v>6.424303306844119</v>
+        <v>6.531039712697837</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>49.56014453269755</v>
+        <v>17.74333483250695</v>
       </c>
       <c r="G22">
-        <v>2.08153390992893</v>
+        <v>20.95237756185653</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3.106117731606396</v>
       </c>
       <c r="I22">
-        <v>35.70935511952677</v>
+        <v>3.30355428943073</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>8.17801330218445</v>
       </c>
       <c r="K22">
-        <v>15.42946834337608</v>
+        <v>12.80041993078594</v>
       </c>
       <c r="L22">
-        <v>9.688095539764612</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>12.53625961065913</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>37.10385059638354</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>13.32589291349121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.8362688998236</v>
+        <v>13.3652698334689</v>
       </c>
       <c r="C23">
-        <v>8.687338365067298</v>
+        <v>8.967282130067805</v>
       </c>
       <c r="D23">
-        <v>6.427917861742202</v>
+        <v>6.439046182839283</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>48.84382385350182</v>
+        <v>17.60624353066443</v>
       </c>
       <c r="G23">
-        <v>2.085648479282521</v>
+        <v>20.8030497014627</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>3.002671461314474</v>
       </c>
       <c r="I23">
-        <v>35.28789891067504</v>
+        <v>3.248025063327684</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>8.188719689043825</v>
       </c>
       <c r="K23">
-        <v>15.12154833624304</v>
+        <v>12.83300877289033</v>
       </c>
       <c r="L23">
-        <v>9.553272825512334</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>12.37438931549945</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>36.42857054932723</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>13.30737479903688</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.3792242255702</v>
+        <v>12.52378219123653</v>
       </c>
       <c r="C24">
-        <v>8.043257589770308</v>
+        <v>8.623706568638703</v>
       </c>
       <c r="D24">
-        <v>6.441854762853827</v>
+        <v>6.086310616531906</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>46.11230720160749</v>
+        <v>17.05771388175629</v>
       </c>
       <c r="G24">
-        <v>2.101307212834308</v>
+        <v>20.18725763101232</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.604848793723562</v>
       </c>
       <c r="I24">
-        <v>33.69579844658283</v>
+        <v>3.0401546073276</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>8.223983397018028</v>
       </c>
       <c r="K24">
-        <v>13.91793246634778</v>
+        <v>12.93466498968131</v>
       </c>
       <c r="L24">
-        <v>9.042035877414566</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>11.74724600235242</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>33.76695757189504</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>13.22200577731073</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.70627715085962</v>
+        <v>11.53895254506501</v>
       </c>
       <c r="C25">
-        <v>7.310071161872226</v>
+        <v>8.238791536379281</v>
       </c>
       <c r="D25">
-        <v>6.457313011796728</v>
+        <v>5.679961505034379</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>43.12774768529219</v>
+        <v>16.48905732932309</v>
       </c>
       <c r="G25">
-        <v>2.118470798979112</v>
+        <v>19.56486357600037</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.162292656732073</v>
       </c>
       <c r="I25">
-        <v>31.98721137623791</v>
+        <v>2.809426389156165</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>8.274801431067798</v>
       </c>
       <c r="K25">
-        <v>12.53500327367697</v>
+        <v>13.06407749752207</v>
       </c>
       <c r="L25">
-        <v>8.48997453110055</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.02582075329404</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>30.67155639713678</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>13.158609901739</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_54/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_54/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.76826600174866</v>
+        <v>10.74448666818902</v>
       </c>
       <c r="C2">
-        <v>7.893213131431942</v>
+        <v>7.866590420211743</v>
       </c>
       <c r="D2">
-        <v>5.345319965833982</v>
+        <v>5.401646394157679</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>16.15599691865051</v>
+        <v>15.79989921962683</v>
       </c>
       <c r="G2">
-        <v>19.25578117578314</v>
+        <v>17.9283507735813</v>
       </c>
       <c r="H2">
-        <v>1.824228223469136</v>
+        <v>1.832151559219685</v>
       </c>
       <c r="I2">
-        <v>2.62506958617417</v>
+        <v>2.680285752399558</v>
       </c>
       <c r="J2">
-        <v>8.339843267618571</v>
+        <v>8.715927387154199</v>
       </c>
       <c r="K2">
-        <v>13.22176195143003</v>
+        <v>12.8511533162017</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.30309549235554</v>
       </c>
       <c r="M2">
-        <v>10.44503305903925</v>
+        <v>7.704122747648383</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>28.19736470620665</v>
+        <v>10.4947303041188</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>13.17976504715775</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>28.20929319392618</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>12.9122256377622</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.1951796112924</v>
+        <v>10.20300965019103</v>
       </c>
       <c r="C3">
-        <v>7.680434077041015</v>
+        <v>7.571296176452637</v>
       </c>
       <c r="D3">
-        <v>5.11327046020836</v>
+        <v>5.151490401024611</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>15.90783075382993</v>
+        <v>15.59935631264592</v>
       </c>
       <c r="G3">
-        <v>19.00435955028568</v>
+        <v>17.772102554237</v>
       </c>
       <c r="H3">
-        <v>1.586305170064052</v>
+        <v>1.596698093882049</v>
       </c>
       <c r="I3">
-        <v>2.500041365552079</v>
+        <v>2.569070872406169</v>
       </c>
       <c r="J3">
-        <v>8.379717750203298</v>
+        <v>8.737681576271282</v>
       </c>
       <c r="K3">
-        <v>13.31022960573996</v>
+        <v>12.96365521166592</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.46417418577811</v>
       </c>
       <c r="M3">
-        <v>10.03664507270139</v>
+        <v>7.7357145643075</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>26.39695638897698</v>
+        <v>10.07605779952012</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>13.18122229061025</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>26.4128385980067</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>12.94292409118333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.823554864694842</v>
+        <v>9.852239879039725</v>
       </c>
       <c r="C4">
-        <v>7.547406370389838</v>
+        <v>7.386652813864078</v>
       </c>
       <c r="D4">
-        <v>4.964895838469795</v>
+        <v>4.991501564566377</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>15.76124121016558</v>
+        <v>15.48109944713728</v>
       </c>
       <c r="G4">
-        <v>18.85855532218883</v>
+        <v>17.68615753540755</v>
       </c>
       <c r="H4">
-        <v>1.688377975905357</v>
+        <v>1.676139909672634</v>
       </c>
       <c r="I4">
-        <v>2.524524043764875</v>
+        <v>2.499075442017791</v>
       </c>
       <c r="J4">
-        <v>8.406645885422943</v>
+        <v>8.751987001651381</v>
       </c>
       <c r="K4">
-        <v>13.36778720924734</v>
+        <v>13.03482974339953</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.56606179092001</v>
       </c>
       <c r="M4">
-        <v>9.775833360312006</v>
+        <v>7.773711505241638</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>25.2305632094355</v>
+        <v>9.808908881525982</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>13.1873661361925</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>25.24903689630853</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>12.96595724445903</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.664900236362502</v>
+        <v>9.702514393842232</v>
       </c>
       <c r="C5">
-        <v>7.498001502339742</v>
+        <v>7.316697446810433</v>
       </c>
       <c r="D5">
-        <v>4.904548330610766</v>
+        <v>4.926300452053725</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>15.6960183143431</v>
+        <v>15.42732777489858</v>
       </c>
       <c r="G5">
-        <v>18.78907625807138</v>
+        <v>17.64140571934117</v>
       </c>
       <c r="H5">
-        <v>1.752432439093674</v>
+        <v>1.739536023786194</v>
       </c>
       <c r="I5">
-        <v>2.562358464919319</v>
+        <v>2.483558957262249</v>
       </c>
       <c r="J5">
-        <v>8.416371462102088</v>
+        <v>8.756259745254491</v>
       </c>
       <c r="K5">
-        <v>13.38709390507123</v>
+        <v>13.05965665872479</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.60381414009646</v>
       </c>
       <c r="M5">
-        <v>9.66848655370223</v>
+        <v>7.791389301897077</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>24.73982976555368</v>
+        <v>9.698982488727719</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13.18637088733132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>24.75940923405043</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>12.9717302910317</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.635422370653556</v>
+        <v>9.674616669983056</v>
       </c>
       <c r="C6">
-        <v>7.496382085579413</v>
+        <v>7.312484104021213</v>
       </c>
       <c r="D6">
-        <v>4.896350670156135</v>
+        <v>4.917285781454782</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>15.67675167246569</v>
+        <v>15.41014394804568</v>
       </c>
       <c r="G6">
-        <v>18.76274958060942</v>
+        <v>17.61926883011829</v>
       </c>
       <c r="H6">
-        <v>1.763218781631713</v>
+        <v>1.75021011276858</v>
       </c>
       <c r="I6">
-        <v>2.572791029133389</v>
+        <v>2.494195236653969</v>
       </c>
       <c r="J6">
-        <v>8.415764465163829</v>
+        <v>8.754794770135502</v>
       </c>
       <c r="K6">
-        <v>13.38431671750909</v>
+        <v>13.05808523599428</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.60461720040565</v>
       </c>
       <c r="M6">
-        <v>9.652206985512642</v>
+        <v>7.791639032558267</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>24.65729814065334</v>
+        <v>9.682271352841433</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13.18044420397883</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>24.67706738380708</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>12.96709843267764</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.813826441641501</v>
+        <v>9.843325373538777</v>
       </c>
       <c r="C7">
-        <v>7.564698411918267</v>
+        <v>7.402650106398526</v>
       </c>
       <c r="D7">
-        <v>4.96923690153704</v>
+        <v>4.99892552372541</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>15.73719763118613</v>
+        <v>15.44457638668827</v>
       </c>
       <c r="G7">
-        <v>18.81705041146182</v>
+        <v>17.72065328441863</v>
       </c>
       <c r="H7">
-        <v>1.689450775509222</v>
+        <v>1.67730505383102</v>
       </c>
       <c r="I7">
-        <v>2.535860485970209</v>
+        <v>2.502037118493197</v>
       </c>
       <c r="J7">
-        <v>8.400618376734977</v>
+        <v>8.715629320711759</v>
       </c>
       <c r="K7">
-        <v>13.3515764239705</v>
+        <v>13.01392728082422</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.54664556142954</v>
       </c>
       <c r="M7">
-        <v>9.778978664937158</v>
+        <v>7.762179461668375</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>25.22368508272114</v>
+        <v>9.810862507233713</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13.17143132478284</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>25.2420193110425</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>12.94181267677688</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.56538242674822</v>
+        <v>10.55406281016459</v>
       </c>
       <c r="C8">
-        <v>7.843650843943431</v>
+        <v>7.781307935297203</v>
       </c>
       <c r="D8">
-        <v>5.27307913648742</v>
+        <v>5.333286715245277</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>16.0392663214907</v>
+        <v>15.65761767345209</v>
       </c>
       <c r="G8">
-        <v>19.11462845860431</v>
+        <v>18.06913412177248</v>
       </c>
       <c r="H8">
-        <v>1.74282875459908</v>
+        <v>1.75128151365271</v>
       </c>
       <c r="I8">
-        <v>2.585521594236084</v>
+        <v>2.645234975205216</v>
       </c>
       <c r="J8">
-        <v>8.344973748920161</v>
+        <v>8.616457513981702</v>
       </c>
       <c r="K8">
-        <v>13.22982610237827</v>
+        <v>12.85065072331568</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.3248196709875</v>
       </c>
       <c r="M8">
-        <v>10.31226026223307</v>
+        <v>7.685045140152989</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>27.5888343201902</v>
+        <v>10.35487079775508</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13.15823569727419</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>27.60161665836661</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>12.87268541650297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.89240447822602</v>
+        <v>11.81010000775368</v>
       </c>
       <c r="C9">
-        <v>8.339766741802409</v>
+        <v>8.471641006437222</v>
       </c>
       <c r="D9">
-        <v>5.81203544210317</v>
+        <v>5.916209684729868</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>16.71630669326743</v>
+        <v>16.20159538414222</v>
       </c>
       <c r="G9">
-        <v>19.83755155172448</v>
+        <v>18.62559149019503</v>
       </c>
       <c r="H9">
-        <v>2.313590696013511</v>
+        <v>2.315978131795974</v>
       </c>
       <c r="I9">
-        <v>2.88327561186303</v>
+        <v>2.909334837208685</v>
       </c>
       <c r="J9">
-        <v>8.266950922242815</v>
+        <v>8.547467785250847</v>
       </c>
       <c r="K9">
-        <v>13.04739649669925</v>
+        <v>12.59565303450873</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.95540211482233</v>
       </c>
       <c r="M9">
-        <v>11.26710745691746</v>
+        <v>7.713919521184155</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>31.74497729272827</v>
+        <v>11.33432938033637</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13.2042670262079</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>31.74850615258805</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>12.83156026284419</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.87037839408208</v>
+        <v>12.74758879385451</v>
       </c>
       <c r="C10">
-        <v>8.745373918211428</v>
+        <v>8.994642784642593</v>
       </c>
       <c r="D10">
-        <v>6.202516853673801</v>
+        <v>6.349869599368247</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>17.12009180141474</v>
+        <v>16.4470513873465</v>
       </c>
       <c r="G10">
-        <v>20.20124323392401</v>
+        <v>19.31325937888683</v>
       </c>
       <c r="H10">
-        <v>2.656468677422664</v>
+        <v>2.654150590026064</v>
       </c>
       <c r="I10">
-        <v>3.08935615305015</v>
+        <v>3.091596553122658</v>
       </c>
       <c r="J10">
-        <v>8.189672969606889</v>
+        <v>8.311748704567872</v>
       </c>
       <c r="K10">
-        <v>12.8527885760783</v>
+        <v>12.32330166523837</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.63455919681851</v>
       </c>
       <c r="M10">
-        <v>11.99799964846295</v>
+        <v>7.738741895361462</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>33.62274238452716</v>
+        <v>12.07627022812527</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13.18149974064556</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>33.61933372427011</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>12.69983951385719</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.18818309517678</v>
+        <v>14.07523235213819</v>
       </c>
       <c r="C11">
-        <v>9.373243168934531</v>
+        <v>9.616351960293128</v>
       </c>
       <c r="D11">
-        <v>6.580270498611802</v>
+        <v>6.758398691138271</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>16.34412230697518</v>
+        <v>15.57897461942572</v>
       </c>
       <c r="G11">
-        <v>18.67681450937165</v>
+        <v>18.77955166421399</v>
       </c>
       <c r="H11">
-        <v>3.112450182563341</v>
+        <v>3.109310614651852</v>
       </c>
       <c r="I11">
-        <v>3.150494580011474</v>
+        <v>3.145267616842794</v>
       </c>
       <c r="J11">
-        <v>7.886586849912475</v>
+        <v>7.789612482057796</v>
       </c>
       <c r="K11">
-        <v>12.15024191608147</v>
+        <v>11.65479544961567</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.15921123613526</v>
       </c>
       <c r="M11">
-        <v>13.03501112568878</v>
+        <v>7.242147720387347</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>26.93249438752258</v>
+        <v>13.0991610067457</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12.47965872466945</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>26.92630971360698</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>11.95501739669828</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.11695351657402</v>
+        <v>15.01910733482893</v>
       </c>
       <c r="C12">
-        <v>9.819242697647338</v>
+        <v>10.02725933879942</v>
       </c>
       <c r="D12">
-        <v>6.813887961948812</v>
+        <v>6.999653181935596</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>15.62558611021962</v>
+        <v>14.86041727546296</v>
       </c>
       <c r="G12">
-        <v>17.36160164056989</v>
+        <v>17.96059552035438</v>
       </c>
       <c r="H12">
-        <v>4.193152286800914</v>
+        <v>4.190830304501509</v>
       </c>
       <c r="I12">
-        <v>3.164015013725952</v>
+        <v>3.155850194241655</v>
       </c>
       <c r="J12">
-        <v>7.65617104785276</v>
+        <v>7.544374651907243</v>
       </c>
       <c r="K12">
-        <v>11.64704154644285</v>
+        <v>11.21945928691575</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.890106307646688</v>
       </c>
       <c r="M12">
-        <v>13.76829233436315</v>
+        <v>6.856659651868938</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>20.94338962809834</v>
+        <v>13.81917743497131</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11.91543932801157</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>20.93618357118046</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>11.41249347800161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.81821379946482</v>
+        <v>15.73857443433762</v>
       </c>
       <c r="C13">
-        <v>10.1782014601398</v>
+        <v>10.34175362054851</v>
       </c>
       <c r="D13">
-        <v>6.962293624679368</v>
+        <v>7.130679749315243</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>14.86295244894051</v>
+        <v>14.19947075093324</v>
       </c>
       <c r="G13">
-        <v>16.05431178319762</v>
+        <v>16.61095029233762</v>
       </c>
       <c r="H13">
-        <v>5.453577621427909</v>
+        <v>5.452186513265555</v>
       </c>
       <c r="I13">
-        <v>3.145727343554747</v>
+        <v>3.140069093269646</v>
       </c>
       <c r="J13">
-        <v>7.458616925066021</v>
+        <v>7.466132851665487</v>
       </c>
       <c r="K13">
-        <v>11.24588904899871</v>
+        <v>10.91823846518651</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.727287387296315</v>
       </c>
       <c r="M13">
-        <v>14.33042682721235</v>
+        <v>6.533779296312002</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.96600187868783</v>
+        <v>14.37019572770598</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11.39864040786248</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>14.95895770648546</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>10.98457890283512</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.21317291859237</v>
+        <v>16.14768090310982</v>
       </c>
       <c r="C14">
-        <v>10.39964894482031</v>
+        <v>10.5279496333617</v>
       </c>
       <c r="D14">
-        <v>7.030413669586251</v>
+        <v>7.175044209478648</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>14.3003773059997</v>
+        <v>13.75186962151342</v>
       </c>
       <c r="G14">
-        <v>15.13417371765892</v>
+        <v>15.42932677876333</v>
       </c>
       <c r="H14">
-        <v>6.481691231529273</v>
+        <v>6.482452268024984</v>
       </c>
       <c r="I14">
-        <v>3.1204391189242</v>
+        <v>3.119200587654065</v>
       </c>
       <c r="J14">
-        <v>7.335111735599299</v>
+        <v>7.465155341652435</v>
       </c>
       <c r="K14">
-        <v>11.01599003516266</v>
+        <v>10.7647288218868</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.652005374199538</v>
       </c>
       <c r="M14">
-        <v>14.65346313802069</v>
+        <v>6.341396655729452</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>10.77861666323162</v>
+        <v>14.68615505668418</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11.05824067051331</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>10.77205226163485</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>10.73150921916849</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.25944271850162</v>
+        <v>16.19814124662901</v>
       </c>
       <c r="C15">
-        <v>10.44111562494437</v>
+        <v>10.56016689942083</v>
       </c>
       <c r="D15">
-        <v>7.030716318035918</v>
+        <v>7.164574841287983</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>14.14722980274362</v>
+        <v>13.64540821737435</v>
       </c>
       <c r="G15">
-        <v>14.90078696446106</v>
+        <v>15.037551187877</v>
       </c>
       <c r="H15">
-        <v>6.722927432217249</v>
+        <v>6.723576060640543</v>
       </c>
       <c r="I15">
-        <v>3.107718828662117</v>
+        <v>3.109304717875612</v>
       </c>
       <c r="J15">
-        <v>7.3104783065365</v>
+        <v>7.487982484898835</v>
       </c>
       <c r="K15">
-        <v>10.97554048568669</v>
+        <v>10.74628205251624</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.645333689011757</v>
       </c>
       <c r="M15">
-        <v>14.69682986816356</v>
+        <v>6.305152552651953</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>9.75637574362503</v>
+        <v>14.72832156029491</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10.98138946717157</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>9.750381449743893</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>10.68654111021457</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.76363483664531</v>
+        <v>15.70979287764866</v>
       </c>
       <c r="C16">
-        <v>10.21898981572358</v>
+        <v>10.33003084101655</v>
       </c>
       <c r="D16">
-        <v>6.850409308472131</v>
+        <v>6.942983458204621</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>14.09012726938994</v>
+        <v>13.74084452327482</v>
       </c>
       <c r="G16">
-        <v>14.95776688973586</v>
+        <v>14.34297317297084</v>
       </c>
       <c r="H16">
-        <v>6.509481730702639</v>
+        <v>6.509591885887161</v>
       </c>
       <c r="I16">
-        <v>3.026474379064929</v>
+        <v>3.040970843699904</v>
       </c>
       <c r="J16">
-        <v>7.380710742784742</v>
+        <v>7.729477045443875</v>
       </c>
       <c r="K16">
-        <v>11.13749117401331</v>
+        <v>10.93886112588007</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.768374194059712</v>
       </c>
       <c r="M16">
-        <v>14.31039240705374</v>
+        <v>6.419489421782725</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>9.703881968442733</v>
+        <v>14.34703128676971</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11.08700238768358</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>9.702950107060856</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>10.87991115310335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.15337690951855</v>
+        <v>15.09884273276459</v>
       </c>
       <c r="C17">
-        <v>9.924251412481745</v>
+        <v>10.042786918808</v>
       </c>
       <c r="D17">
-        <v>6.671980367442671</v>
+        <v>6.750579652103547</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>14.35223227125944</v>
+        <v>14.04155419290183</v>
       </c>
       <c r="G17">
-        <v>15.49417429244918</v>
+        <v>14.54768486914394</v>
       </c>
       <c r="H17">
-        <v>5.754224906494266</v>
+        <v>5.753969063680166</v>
       </c>
       <c r="I17">
-        <v>2.976987191712464</v>
+        <v>2.998794167049617</v>
       </c>
       <c r="J17">
-        <v>7.499637628570858</v>
+        <v>7.917171249487219</v>
       </c>
       <c r="K17">
-        <v>11.37846417380245</v>
+        <v>11.16674569045787</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.915705919386125</v>
       </c>
       <c r="M17">
-        <v>13.82939202757174</v>
+        <v>6.595829679262471</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>11.95888211227911</v>
+        <v>13.87267698302966</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11.34713175651521</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>11.96057957234081</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>11.15498669692231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.38671374002388</v>
+        <v>14.32295792642839</v>
       </c>
       <c r="C18">
-        <v>9.524939573275583</v>
+        <v>9.667734844463977</v>
       </c>
       <c r="D18">
-        <v>6.472865980300313</v>
+        <v>6.55332438821226</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>14.93172181400784</v>
+        <v>14.59256967855583</v>
       </c>
       <c r="G18">
-        <v>16.53485048039126</v>
+        <v>15.3992326510378</v>
       </c>
       <c r="H18">
-        <v>4.447338845719321</v>
+        <v>4.4468271789689</v>
       </c>
       <c r="I18">
-        <v>2.949745727972748</v>
+        <v>2.97374399973556</v>
       </c>
       <c r="J18">
-        <v>7.679309006834758</v>
+        <v>8.107593440593694</v>
       </c>
       <c r="K18">
-        <v>11.74139651601821</v>
+        <v>11.48230364855853</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.1254451311095</v>
       </c>
       <c r="M18">
-        <v>13.21570336973995</v>
+        <v>6.863114009465892</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.6412778554186</v>
+        <v>13.26890335200035</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11.78418324180874</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>16.64371617327567</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>11.56255138645762</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.54993311344649</v>
+        <v>13.47053469251705</v>
       </c>
       <c r="C19">
-        <v>9.129296523017681</v>
+        <v>9.306230049255882</v>
       </c>
       <c r="D19">
-        <v>6.283282312352377</v>
+        <v>6.375001109379292</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>15.68215254505361</v>
+        <v>15.27427151333463</v>
       </c>
       <c r="G19">
-        <v>17.84884811605498</v>
+        <v>16.58225058134031</v>
       </c>
       <c r="H19">
-        <v>3.109038207397604</v>
+        <v>3.10986968569848</v>
       </c>
       <c r="I19">
-        <v>2.95697939031232</v>
+        <v>2.980847698552521</v>
       </c>
       <c r="J19">
-        <v>7.888206709895837</v>
+        <v>8.293859703158954</v>
       </c>
       <c r="K19">
-        <v>12.18033603092793</v>
+        <v>11.84908332724556</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.37318592027755</v>
       </c>
       <c r="M19">
-        <v>12.56233591063441</v>
+        <v>7.184527860932335</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>22.95746513601226</v>
+        <v>12.62674212305442</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12.31511033147207</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>22.95953260892593</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>12.03607734110494</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.60682936964647</v>
+        <v>12.49312717460327</v>
       </c>
       <c r="C20">
-        <v>8.694602514892779</v>
+        <v>8.930434903616378</v>
       </c>
       <c r="D20">
-        <v>6.117086005780579</v>
+        <v>6.243596756966807</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>16.94146198757548</v>
+        <v>16.35606949108564</v>
       </c>
       <c r="G20">
-        <v>19.97752570983534</v>
+        <v>18.74554454301085</v>
       </c>
       <c r="H20">
-        <v>2.563359167638926</v>
+        <v>2.562585958493907</v>
       </c>
       <c r="I20">
-        <v>3.045379933372824</v>
+        <v>3.058386130205223</v>
       </c>
       <c r="J20">
-        <v>8.188941205893139</v>
+        <v>8.455472942479373</v>
       </c>
       <c r="K20">
-        <v>12.84900268925951</v>
+        <v>12.36504274278454</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.6970983663945</v>
       </c>
       <c r="M20">
-        <v>11.82673875992149</v>
+        <v>7.701710356123617</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>33.10025156337251</v>
+        <v>11.90535189443162</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13.13395521837635</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>33.09911386280168</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>12.71495523504776</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.16619114346678</v>
+        <v>13.02815088738971</v>
       </c>
       <c r="C21">
-        <v>8.918058258208772</v>
+        <v>9.190328957872969</v>
       </c>
       <c r="D21">
-        <v>6.366994386609344</v>
+        <v>6.577901347358909</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>17.44174904969877</v>
+        <v>16.4893612460618</v>
       </c>
       <c r="G21">
-        <v>20.59364607989763</v>
+        <v>20.96626653453001</v>
       </c>
       <c r="H21">
-        <v>2.911464928437085</v>
+        <v>2.905472143146767</v>
       </c>
       <c r="I21">
-        <v>3.206201297945071</v>
+        <v>3.194126197279244</v>
       </c>
       <c r="J21">
-        <v>8.185272084349164</v>
+        <v>7.853212169798184</v>
       </c>
       <c r="K21">
-        <v>12.82610418703451</v>
+        <v>12.15679997275918</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.4618945809813</v>
       </c>
       <c r="M21">
-        <v>12.23994319098312</v>
+        <v>7.738286719212405</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>35.82929194082292</v>
+        <v>12.31215921141578</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13.25854643574151</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>35.82049884374921</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>12.57536961114619</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.57496371604647</v>
+        <v>13.42397635261742</v>
       </c>
       <c r="C22">
-        <v>9.064441335733035</v>
+        <v>9.353592229852561</v>
       </c>
       <c r="D22">
-        <v>6.531039712697837</v>
+        <v>6.798099824280404</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>17.74333483250695</v>
+        <v>16.54016670785962</v>
       </c>
       <c r="G22">
-        <v>20.95237756185653</v>
+        <v>22.49799012388413</v>
       </c>
       <c r="H22">
-        <v>3.106117731606396</v>
+        <v>3.096811730112099</v>
       </c>
       <c r="I22">
-        <v>3.30355428943073</v>
+        <v>3.274491104516239</v>
       </c>
       <c r="J22">
-        <v>8.17801330218445</v>
+        <v>7.509203468175783</v>
       </c>
       <c r="K22">
-        <v>12.80041993078594</v>
+        <v>12.00300104186629</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.30273874959407</v>
       </c>
       <c r="M22">
-        <v>12.53625961065913</v>
+        <v>7.755736510511461</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>37.10385059638354</v>
+        <v>12.60339434592524</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>13.32589291349121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>37.09019446182742</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>12.45826868130962</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.3652698334689</v>
+        <v>13.21967716302991</v>
       </c>
       <c r="C23">
-        <v>8.967282130067805</v>
+        <v>9.252304673837726</v>
       </c>
       <c r="D23">
-        <v>6.439046182839283</v>
+        <v>6.669366089930604</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>17.60624353066443</v>
+        <v>16.56777452454314</v>
       </c>
       <c r="G23">
-        <v>20.8030497014627</v>
+        <v>21.52760609163145</v>
       </c>
       <c r="H23">
-        <v>3.002671461314474</v>
+        <v>2.995292995326209</v>
       </c>
       <c r="I23">
-        <v>3.248025063327684</v>
+        <v>3.227334015736985</v>
       </c>
       <c r="J23">
-        <v>8.188719689043825</v>
+        <v>7.738092199235037</v>
       </c>
       <c r="K23">
-        <v>12.83300877289033</v>
+        <v>12.11621782343967</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.40581423044643</v>
       </c>
       <c r="M23">
-        <v>12.37438931549945</v>
+        <v>7.775303358753666</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>36.42857054932723</v>
+        <v>12.44631606402997</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>13.30737479903688</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>36.41774435049264</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>12.56011408990965</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.52378219123653</v>
+        <v>12.40839600009276</v>
       </c>
       <c r="C24">
-        <v>8.623706568638703</v>
+        <v>8.856363388840414</v>
       </c>
       <c r="D24">
-        <v>6.086310616531906</v>
+        <v>6.213346030986911</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>17.05771388175629</v>
+        <v>16.46596187864525</v>
       </c>
       <c r="G24">
-        <v>20.18725763101232</v>
+        <v>18.93030698561184</v>
       </c>
       <c r="H24">
-        <v>2.604848793723562</v>
+        <v>2.604041357542201</v>
       </c>
       <c r="I24">
-        <v>3.0401546073276</v>
+        <v>3.050915785569181</v>
       </c>
       <c r="J24">
-        <v>8.223983397018028</v>
+        <v>8.490367410430652</v>
       </c>
       <c r="K24">
-        <v>12.93466498968131</v>
+        <v>12.43984606234594</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.74934505214887</v>
       </c>
       <c r="M24">
-        <v>11.74724600235242</v>
+        <v>7.764863700529218</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>33.76695757189504</v>
+        <v>11.82657915059559</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>13.22200577731073</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>33.76577021524704</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>12.7965108058932</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.53895254506501</v>
+        <v>11.47429344612929</v>
       </c>
       <c r="C25">
-        <v>8.238791536379281</v>
+        <v>8.327751491425307</v>
       </c>
       <c r="D25">
-        <v>5.679961505034379</v>
+        <v>5.768666806963828</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>16.48905732932309</v>
+        <v>16.02982593397513</v>
       </c>
       <c r="G25">
-        <v>19.56486357600037</v>
+        <v>18.29141062596485</v>
       </c>
       <c r="H25">
-        <v>2.162292656732073</v>
+        <v>2.166441449549062</v>
       </c>
       <c r="I25">
-        <v>2.809426389156165</v>
+        <v>2.846611921176406</v>
       </c>
       <c r="J25">
-        <v>8.274801431067798</v>
+        <v>8.597057398117949</v>
       </c>
       <c r="K25">
-        <v>13.06407749752207</v>
+        <v>12.64338492405074</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.03837144409226</v>
       </c>
       <c r="M25">
-        <v>11.02582075329404</v>
+        <v>7.674418712442324</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>30.67155639713678</v>
+        <v>11.08791120787276</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13.158609901739</v>
+        <v>30.67771378893895</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>12.82411397593978</v>
       </c>
     </row>
   </sheetData>
